--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shimbotatsuya/Desktop/environment/arutyukarakara/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F24EA6-7653-7947-9F84-32D9C8EA4BAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BD7CC5-38B6-8549-8794-B43ED3765A8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="10000" windowHeight="16320" xr2:uid="{95ECEB11-3DF1-9844-9495-04CE7707F68C}"/>
+    <workbookView xWindow="-120" yWindow="1680" windowWidth="10440" windowHeight="15880" xr2:uid="{95ECEB11-3DF1-9844-9495-04CE7707F68C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="400">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -775,18 +775,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スケルノイズ</t>
-    <rPh sb="0" eb="1">
-      <t>スケルノイz</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スターアサルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ステミタックル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -952,10 +941,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>つけあがり</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>つじぎり</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1809,6 +1794,97 @@
   </si>
   <si>
     <t>ワンダースチーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つけあがる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレキボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちきゅうなげ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかりのまえば</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイトヘッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミラーコート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メタルバースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いのちがけ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハサミギロチン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つのドリル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じわれ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぜったいれいど</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>がむしゃら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>すてみタックル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スケイルノイズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確認</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未確認</t>
+    <rPh sb="0" eb="1">
+      <t>ミカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2182,10 +2258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11BD76A2-3902-FE4D-A81C-2A0E0C2C36BF}">
-  <dimension ref="A1:J359"/>
+  <dimension ref="A1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="D305" sqref="D305"/>
+    <sheetView tabSelected="1" topLeftCell="B192" workbookViewId="0">
+      <selection activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2228,6 +2304,9 @@
       <c r="E2">
         <v>80</v>
       </c>
+      <c r="F2" t="s">
+        <v>394</v>
+      </c>
       <c r="J2" t="str">
         <f>"Skill.create(name: """&amp;B2&amp;""", power: "&amp;E2&amp;", category: "&amp;C2&amp;", group: "&amp;D2&amp;")"</f>
         <v>Skill.create(name: "Gのちから", power: 80, category: 5, group: 1)</v>
@@ -2249,6 +2328,9 @@
       <c r="E3">
         <v>100</v>
       </c>
+      <c r="F3" t="s">
+        <v>395</v>
+      </c>
       <c r="J3" t="str">
         <f t="shared" ref="J3:J257" si="0">"Skill.create(name: """&amp;B3&amp;""", power: "&amp;E3&amp;", category: "&amp;C3&amp;", group: "&amp;D3&amp;")"</f>
         <v>Skill.create(name: "アームハンマー", power: 100, category: 7, group: 1)</v>
@@ -2270,6 +2352,9 @@
       <c r="E4">
         <v>100</v>
       </c>
+      <c r="F4" t="s">
+        <v>395</v>
+      </c>
       <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アイアンテール", power: 100, category: 17, group: 1)</v>
@@ -2291,6 +2376,9 @@
       <c r="E5">
         <v>80</v>
       </c>
+      <c r="F5" t="s">
+        <v>395</v>
+      </c>
       <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アイアンヘッド", power: 80, category: 17, group: 1)</v>
@@ -2312,6 +2400,9 @@
       <c r="E6">
         <v>130</v>
       </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "あおいほのお", power: 130, category: 2, group: 2)</v>
@@ -2333,6 +2424,9 @@
       <c r="E7">
         <v>40</v>
       </c>
+      <c r="F7" t="s">
+        <v>395</v>
+      </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アクアジェット", power: 40, category: 3, group: 1)</v>
@@ -2354,6 +2448,9 @@
       <c r="E8">
         <v>90</v>
       </c>
+      <c r="F8" t="s">
+        <v>395</v>
+      </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アクアテール", power: 90, category: 3, group: 1)</v>
@@ -2375,6 +2472,9 @@
       <c r="E9">
         <v>85</v>
       </c>
+      <c r="F9" t="s">
+        <v>395</v>
+      </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アクアブレイク", power: 85, category: 3, group: 1)</v>
@@ -2396,6 +2496,9 @@
       <c r="E10">
         <v>40</v>
       </c>
+      <c r="F10" t="s">
+        <v>395</v>
+      </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アクセルロック", power: 40, category: 13, group: 1)</v>
@@ -2417,6 +2520,9 @@
       <c r="E11">
         <v>80</v>
       </c>
+      <c r="F11" t="s">
+        <v>395</v>
+      </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "あくのはどう", power: 80, category: 16, group: 2)</v>
@@ -2438,6 +2544,9 @@
       <c r="E12">
         <v>55</v>
       </c>
+      <c r="F12" t="s">
+        <v>394</v>
+      </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アクロバット", power: 55, category: 10, group: 1)</v>
@@ -2459,6 +2568,9 @@
       <c r="E13">
         <v>20</v>
       </c>
+      <c r="F13" t="s">
+        <v>394</v>
+      </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アシストパワー", power: 20, category: 11, group: 2)</v>
@@ -2480,6 +2592,9 @@
       <c r="E14">
         <v>40</v>
       </c>
+      <c r="F14" t="s">
+        <v>395</v>
+      </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アシッドボム", power: 40, category: 8, group: 2)</v>
@@ -2501,6 +2616,9 @@
       <c r="E15">
         <v>70</v>
       </c>
+      <c r="F15" t="s">
+        <v>395</v>
+      </c>
       <c r="J15" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "あてみなげ", power: 70, category: 7, group: 1)</v>
@@ -2522,6 +2640,9 @@
       <c r="E16">
         <v>80</v>
       </c>
+      <c r="F16" t="s">
+        <v>395</v>
+      </c>
       <c r="J16" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "あなをほる", power: 80, category: 10, group: 1)</v>
@@ -2543,6 +2664,9 @@
       <c r="E17">
         <v>120</v>
       </c>
+      <c r="F17" t="s">
+        <v>395</v>
+      </c>
       <c r="J17" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "あばれる", power: 120, category: 1, group: 1)</v>
@@ -2564,6 +2688,9 @@
       <c r="E18">
         <v>80</v>
       </c>
+      <c r="F18" t="s">
+        <v>395</v>
+      </c>
       <c r="J18" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "アンカーショット", power: 80, category: 17, group: 1)</v>
@@ -2585,6 +2712,9 @@
       <c r="E19">
         <v>50</v>
       </c>
+      <c r="F19" t="s">
+        <v>395</v>
+      </c>
       <c r="J19" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "いあいぎり", power: 50, category: 1, group: 1)</v>
@@ -2606,6 +2736,9 @@
       <c r="E20">
         <v>95</v>
       </c>
+      <c r="F20" t="s">
+        <v>397</v>
+      </c>
       <c r="J20" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "イカサマ", power: 95, category: 16, group: 1)</v>
@@ -2627,6 +2760,9 @@
       <c r="E21">
         <v>50</v>
       </c>
+      <c r="F21" t="s">
+        <v>395</v>
+      </c>
       <c r="J21" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "いびき", power: 50, category: 1, group: 2)</v>
@@ -2648,6 +2784,9 @@
       <c r="E22">
         <v>50</v>
       </c>
+      <c r="F22" t="s">
+        <v>395</v>
+      </c>
       <c r="J22" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "いわおとし", power: 50, category: 13, group: 1)</v>
@@ -2669,6 +2808,9 @@
       <c r="E23">
         <v>40</v>
       </c>
+      <c r="F23" t="s">
+        <v>395</v>
+      </c>
       <c r="J23" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "いわくだき", power: 40, category: 7, group: 1)</v>
@@ -2690,6 +2832,9 @@
       <c r="E24">
         <v>75</v>
       </c>
+      <c r="F24" t="s">
+        <v>395</v>
+      </c>
       <c r="J24" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "いわなだれ", power: 75, category: 13, group: 1)</v>
@@ -2711,6 +2856,9 @@
       <c r="E25">
         <v>120</v>
       </c>
+      <c r="F25" t="s">
+        <v>395</v>
+      </c>
       <c r="J25" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "インファイト", power: 120, category: 7, group: 1)</v>
@@ -2732,6 +2880,9 @@
       <c r="E26">
         <v>50</v>
       </c>
+      <c r="F26" t="s">
+        <v>397</v>
+      </c>
       <c r="J26" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ウェザーボール", power: 50, category: 1, group: 2)</v>
@@ -2753,6 +2904,9 @@
       <c r="E27">
         <v>35</v>
       </c>
+      <c r="F27" t="s">
+        <v>394</v>
+      </c>
       <c r="J27" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "うずしお", power: 35, category: 3, group: 2)</v>
@@ -2774,6 +2928,9 @@
       <c r="E28">
         <v>90</v>
       </c>
+      <c r="F28" t="s">
+        <v>395</v>
+      </c>
       <c r="J28" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "うたかたのアリア", power: 90, category: 3, group: 2)</v>
@@ -2795,6 +2952,9 @@
       <c r="E29">
         <v>50</v>
       </c>
+      <c r="F29" t="s">
+        <v>395</v>
+      </c>
       <c r="J29" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "うちおとす", power: 50, category: 13, group: 1)</v>
@@ -2816,6 +2976,9 @@
       <c r="E30">
         <v>120</v>
       </c>
+      <c r="F30" t="s">
+        <v>395</v>
+      </c>
       <c r="J30" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ウッドハンマー", power: 120, category: 5, group: 1)</v>
@@ -2837,6 +3000,9 @@
       <c r="E31">
         <v>75</v>
       </c>
+      <c r="F31" t="s">
+        <v>395</v>
+      </c>
       <c r="J31" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ウッドホーン", power: 75, category: 5, group: 1)</v>
@@ -2858,6 +3024,9 @@
       <c r="E32">
         <v>60</v>
       </c>
+      <c r="F32" t="s">
+        <v>395</v>
+      </c>
       <c r="J32" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エアカッター", power: 60, category: 10, group: 2)</v>
@@ -2879,6 +3048,9 @@
       <c r="E33">
         <v>75</v>
       </c>
+      <c r="F33" t="s">
+        <v>395</v>
+      </c>
       <c r="J33" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エアスラッシュ", power: 75, category: 10, group: 2)</v>
@@ -2900,6 +3072,9 @@
       <c r="E34">
         <v>40</v>
       </c>
+      <c r="F34" t="s">
+        <v>395</v>
+      </c>
       <c r="J34" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エコーボイス", power: 40, category: 1, group: 2)</v>
@@ -2921,6 +3096,9 @@
       <c r="E35">
         <v>40</v>
       </c>
+      <c r="F35" t="s">
+        <v>395</v>
+      </c>
       <c r="J35" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "えだづき", power: 40, category: 5, group: 1)</v>
@@ -2942,6 +3120,9 @@
       <c r="E36">
         <v>90</v>
       </c>
+      <c r="F36" t="s">
+        <v>395</v>
+      </c>
       <c r="J36" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エナジーボール", power: 90, category: 5, group: 2)</v>
@@ -2963,6 +3144,9 @@
       <c r="E37">
         <v>85</v>
       </c>
+      <c r="F37" t="s">
+        <v>394</v>
+      </c>
       <c r="J37" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エラがみ", power: 85, category: 3, group: 1)</v>
@@ -2984,6 +3168,9 @@
       <c r="E38">
         <v>55</v>
       </c>
+      <c r="F38" t="s">
+        <v>395</v>
+      </c>
       <c r="J38" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "エレキネット", power: 55, category: 4, group: 2)</v>
@@ -3005,6 +3192,9 @@
       <c r="E39">
         <v>80</v>
       </c>
+      <c r="F39" t="s">
+        <v>395</v>
+      </c>
       <c r="J39" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "オーバードライブ", power: 80, category: 4, group: 2)</v>
@@ -3026,6 +3216,9 @@
       <c r="E40">
         <v>130</v>
       </c>
+      <c r="F40" t="s">
+        <v>395</v>
+      </c>
       <c r="J40" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "オーバーヒート", power: 130, category: 2, group: 2)</v>
@@ -3047,6 +3240,9 @@
       <c r="E41">
         <v>110</v>
       </c>
+      <c r="F41" t="s">
+        <v>394</v>
+      </c>
       <c r="J41" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "オーラぐるま", power: 110, category: 4, group: 1)</v>
@@ -3068,6 +3264,9 @@
       <c r="E42">
         <v>65</v>
       </c>
+      <c r="F42" t="s">
+        <v>395</v>
+      </c>
       <c r="J42" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "オーロラビーム", power: 65, category: 6, group: 2)</v>
@@ -3089,6 +3288,9 @@
       <c r="E43">
         <v>65</v>
       </c>
+      <c r="F43" t="s">
+        <v>395</v>
+      </c>
       <c r="J43" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "オクタンほう", power: 65, category: 3, group: 2)</v>
@@ -3110,6 +3312,9 @@
       <c r="E44">
         <v>30</v>
       </c>
+      <c r="F44" t="s">
+        <v>395</v>
+      </c>
       <c r="J44" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "おどろかす", power: 30, category: 14, group: 1)</v>
@@ -3131,6 +3336,9 @@
       <c r="E45">
         <v>80</v>
       </c>
+      <c r="F45" t="s">
+        <v>395</v>
+      </c>
       <c r="J45" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かいりき", power: 80, category: 1, group: 1)</v>
@@ -3152,6 +3360,9 @@
       <c r="E46">
         <v>60</v>
       </c>
+      <c r="F46" t="s">
+        <v>395</v>
+      </c>
       <c r="J46" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かえんぐるま", power: 60, category: 2, group: 1)</v>
@@ -3173,6 +3384,9 @@
       <c r="E47">
         <v>90</v>
       </c>
+      <c r="F47" t="s">
+        <v>395</v>
+      </c>
       <c r="J47" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かえんほうしゃ", power: 90, category: 2, group: 2)</v>
@@ -3194,6 +3408,9 @@
       <c r="E48">
         <v>120</v>
       </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
       <c r="J48" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かえんボール", power: 120, category: 2, group: 1)</v>
@@ -3215,6 +3432,9 @@
       <c r="E49">
         <v>40</v>
       </c>
+      <c r="F49" t="s">
+        <v>395</v>
+      </c>
       <c r="J49" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かげうち", power: 40, category: 14, group: 1)</v>
@@ -3236,6 +3456,9 @@
       <c r="E50">
         <v>80</v>
       </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
       <c r="J50" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かげぬい", power: 80, category: 14, group: 1)</v>
@@ -3257,6 +3480,9 @@
       <c r="E51">
         <v>40</v>
       </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
       <c r="J51" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かぜおこし", power: 40, category: 10, group: 2)</v>
@@ -3278,6 +3504,9 @@
       <c r="E52">
         <v>70</v>
       </c>
+      <c r="F52" t="s">
+        <v>394</v>
+      </c>
       <c r="J52" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かたきうち", power: 70, category: 1, group: 1)</v>
@@ -3299,6 +3528,9 @@
       <c r="E53">
         <v>90</v>
       </c>
+      <c r="F53" t="s">
+        <v>395</v>
+      </c>
       <c r="J53" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かふんだんご", power: 90, category: 12, group: 2)</v>
@@ -3320,6 +3552,9 @@
       <c r="E54">
         <v>80</v>
       </c>
+      <c r="F54" t="s">
+        <v>395</v>
+      </c>
       <c r="J54" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かみくだく", power: 80, category: 16, group: 1)</v>
@@ -3341,6 +3576,9 @@
       <c r="E55">
         <v>60</v>
       </c>
+      <c r="F55" t="s">
+        <v>395</v>
+      </c>
       <c r="J55" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かみつく", power: 60, category: 16, group: 1)</v>
@@ -3362,6 +3600,9 @@
       <c r="E56">
         <v>110</v>
       </c>
+      <c r="F56" t="s">
+        <v>395</v>
+      </c>
       <c r="J56" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かみなり", power: 110, category: 4, group: 2)</v>
@@ -3383,6 +3624,9 @@
       <c r="E57">
         <v>65</v>
       </c>
+      <c r="F57" t="s">
+        <v>395</v>
+      </c>
       <c r="J57" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かみなりのキバ", power: 65, category: 4, group: 1)</v>
@@ -3404,6 +3648,9 @@
       <c r="E58">
         <v>75</v>
       </c>
+      <c r="F58" t="s">
+        <v>395</v>
+      </c>
       <c r="J58" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かみなりパンチ", power: 75, category: 4, group: 1)</v>
@@ -3425,6 +3672,9 @@
       <c r="E59">
         <v>70</v>
       </c>
+      <c r="F59" t="s">
+        <v>394</v>
+      </c>
       <c r="J59" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "からげんき", power: 70, category: 1, group: 1)</v>
@@ -3446,6 +3696,9 @@
       <c r="E60">
         <v>75</v>
       </c>
+      <c r="F60" t="s">
+        <v>394</v>
+      </c>
       <c r="J60" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "かわらわり", power: 75, category: 7, group: 1)</v>
@@ -3467,6 +3720,9 @@
       <c r="E61">
         <v>60</v>
       </c>
+      <c r="F61" t="s">
+        <v>395</v>
+      </c>
       <c r="J61" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "がんせきふうじ", power: 60, category: 13, group: 1)</v>
@@ -3488,6 +3744,9 @@
       <c r="E62">
         <v>150</v>
       </c>
+      <c r="F62" t="s">
+        <v>395</v>
+      </c>
       <c r="J62" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "がんせきほう", power: 150, category: 13, group: 1)</v>
@@ -3509,6 +3768,9 @@
       <c r="E63">
         <v>120</v>
       </c>
+      <c r="F63" t="s">
+        <v>395</v>
+      </c>
       <c r="J63" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きあいだま", power: 120, category: 7, group: 2)</v>
@@ -3530,6 +3792,9 @@
       <c r="E64">
         <v>150</v>
       </c>
+      <c r="F64" t="s">
+        <v>395</v>
+      </c>
       <c r="J64" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きあいパンチ", power: 150, category: 7, group: 1)</v>
@@ -3551,6 +3816,9 @@
       <c r="E65">
         <v>200</v>
       </c>
+      <c r="F65" t="s">
+        <v>394</v>
+      </c>
       <c r="J65" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きしかいせい", power: 200, category: 7, group: 1)</v>
@@ -3572,6 +3840,9 @@
       <c r="E66">
         <v>80</v>
       </c>
+      <c r="F66" t="s">
+        <v>395</v>
+      </c>
       <c r="J66" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きゅうけつ", power: 80, category: 12, group: 1)</v>
@@ -3593,6 +3864,9 @@
       <c r="E67">
         <v>100</v>
       </c>
+      <c r="F67" t="s">
+        <v>394</v>
+      </c>
       <c r="J67" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きょじゅうざん", power: 100, category: 17, group: 1)</v>
@@ -3614,6 +3888,9 @@
       <c r="E68">
         <v>100</v>
       </c>
+      <c r="F68" t="s">
+        <v>394</v>
+      </c>
       <c r="J68" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きょじゅうだん", power: 100, category: 17, group: 1)</v>
@@ -3635,6 +3912,9 @@
       <c r="E69">
         <v>70</v>
       </c>
+      <c r="F69" t="s">
+        <v>395</v>
+      </c>
       <c r="J69" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "きりさく", power: 70, category: 1, group: 1)</v>
@@ -3656,6 +3936,9 @@
       <c r="E70">
         <v>50</v>
       </c>
+      <c r="F70" t="s">
+        <v>394</v>
+      </c>
       <c r="J70" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ギアソーサー", power: 50, category: 17, group: 1)</v>
@@ -3677,6 +3960,9 @@
       <c r="E71">
         <v>150</v>
       </c>
+      <c r="F71" t="s">
+        <v>395</v>
+      </c>
       <c r="J71" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ギガインパクト", power: 150, category: 1, group: 1)</v>
@@ -3698,6 +3984,9 @@
       <c r="E72">
         <v>75</v>
       </c>
+      <c r="F72" t="s">
+        <v>395</v>
+      </c>
       <c r="J72" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ギガドレイン", power: 75, category: 5, group: 2)</v>
@@ -3719,6 +4008,9 @@
       <c r="E73">
         <v>80</v>
       </c>
+      <c r="F73" t="s">
+        <v>394</v>
+      </c>
       <c r="J73" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "くさのちかい", power: 80, category: 5, group: 2)</v>
@@ -3740,6 +4032,9 @@
       <c r="E74">
         <v>120</v>
       </c>
+      <c r="F74" t="s">
+        <v>394</v>
+      </c>
       <c r="J74" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "くさむすび", power: 120, category: 5, group: 2)</v>
@@ -3761,6 +4056,9 @@
       <c r="E75">
         <v>80</v>
       </c>
+      <c r="F75" t="s">
+        <v>395</v>
+      </c>
       <c r="J75" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "くらいつく", power: 80, category: 16, group: 1)</v>
@@ -3782,6 +4080,9 @@
       <c r="E76">
         <v>100</v>
       </c>
+      <c r="F76" t="s">
+        <v>395</v>
+      </c>
       <c r="J76" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クラブハンマー", power: 100, category: 3, group: 1)</v>
@@ -3803,6 +4104,9 @@
       <c r="E77">
         <v>50</v>
       </c>
+      <c r="F77" t="s">
+        <v>395</v>
+      </c>
       <c r="J77" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クリアスモッグ", power: 50, category: 8, group: 2)</v>
@@ -3824,6 +4128,12 @@
       <c r="E78">
         <v>100</v>
       </c>
+      <c r="F78" t="s">
+        <v>394</v>
+      </c>
+      <c r="G78" t="s">
+        <v>396</v>
+      </c>
       <c r="J78" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クロスサンダー", power: 100, category: 4, group: 1)</v>
@@ -3845,6 +4155,9 @@
       <c r="E79">
         <v>100</v>
       </c>
+      <c r="F79" t="s">
+        <v>395</v>
+      </c>
       <c r="J79" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クロスチョップ", power: 100, category: 7, group: 1)</v>
@@ -3866,6 +4179,12 @@
       <c r="E80">
         <v>100</v>
       </c>
+      <c r="F80" t="s">
+        <v>394</v>
+      </c>
+      <c r="G80" t="s">
+        <v>396</v>
+      </c>
       <c r="J80" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クロスフレイム", power: 100, category: 2, group: 2)</v>
@@ -3887,6 +4206,9 @@
       <c r="E81">
         <v>70</v>
       </c>
+      <c r="F81" t="s">
+        <v>395</v>
+      </c>
       <c r="J81" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "クロスポイズン", power: 70, category: 8, group: 1)</v>
@@ -3908,6 +4230,9 @@
       <c r="E82">
         <v>65</v>
       </c>
+      <c r="F82" t="s">
+        <v>395</v>
+      </c>
       <c r="J82" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "グラスミキサー", power: 65, category: 5, group: 2)</v>
@@ -3929,6 +4254,9 @@
       <c r="E83">
         <v>40</v>
       </c>
+      <c r="F83" t="s">
+        <v>395</v>
+      </c>
       <c r="J83" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "グロウパンチ", power: 40, category: 7, group: 1)</v>
@@ -3950,6 +4278,9 @@
       <c r="E84">
         <v>120</v>
       </c>
+      <c r="F84" t="s">
+        <v>394</v>
+      </c>
       <c r="J84" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "けたぐり", power: 120, category: 7, group: 1)</v>
@@ -3971,6 +4302,9 @@
       <c r="E85">
         <v>120</v>
       </c>
+      <c r="F85" t="s">
+        <v>395</v>
+      </c>
       <c r="J85" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "げきりん", power: 120, category: 15, group: 1)</v>
@@ -3992,6 +4326,9 @@
       <c r="E86">
         <v>120</v>
       </c>
+      <c r="F86" t="s">
+        <v>395</v>
+      </c>
       <c r="J86" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ゲップ", power: 120, category: 8, group: 2)</v>
@@ -4013,6 +4350,9 @@
       <c r="E87">
         <v>60</v>
       </c>
+      <c r="F87" t="s">
+        <v>395</v>
+      </c>
       <c r="J87" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "げんしのちから", power: 60, category: 13, group: 2)</v>
@@ -4034,6 +4374,9 @@
       <c r="E88">
         <v>140</v>
       </c>
+      <c r="F88" t="s">
+        <v>395</v>
+      </c>
       <c r="J88" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "コールドフレア", power: 140, category: 6, group: 2)</v>
@@ -4055,6 +4398,9 @@
       <c r="E89">
         <v>90</v>
       </c>
+      <c r="F89" t="s">
+        <v>395</v>
+      </c>
       <c r="J89" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こうげきしれい", power: 90, category: 12, group: 1)</v>
@@ -4076,6 +4422,9 @@
       <c r="E90">
         <v>50</v>
       </c>
+      <c r="F90" t="s">
+        <v>395</v>
+      </c>
       <c r="J90" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こうそくスピン", power: 50, category: 1, group: 1)</v>
@@ -4097,6 +4446,9 @@
       <c r="E91">
         <v>60</v>
       </c>
+      <c r="F91" t="s">
+        <v>395</v>
+      </c>
       <c r="J91" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こおりのいぶき", power: 60, category: 6, group: 2)</v>
@@ -4118,6 +4470,9 @@
       <c r="E92">
         <v>65</v>
       </c>
+      <c r="F92" t="s">
+        <v>395</v>
+      </c>
       <c r="J92" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こおりのキバ", power: 65, category: 6, group: 1)</v>
@@ -4139,6 +4494,9 @@
       <c r="E93">
         <v>40</v>
       </c>
+      <c r="F93" t="s">
+        <v>395</v>
+      </c>
       <c r="J93" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こおりのつぶて", power: 40, category: 6, group: 1)</v>
@@ -4160,6 +4518,9 @@
       <c r="E94">
         <v>55</v>
       </c>
+      <c r="F94" t="s">
+        <v>395</v>
+      </c>
       <c r="J94" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こごえるかぜ", power: 55, category: 6, group: 2)</v>
@@ -4181,6 +4542,9 @@
       <c r="E95">
         <v>65</v>
       </c>
+      <c r="F95" t="s">
+        <v>395</v>
+      </c>
       <c r="J95" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こごえるせかい", power: 65, category: 6, group: 2)</v>
@@ -4202,6 +4566,9 @@
       <c r="E96">
         <v>40</v>
       </c>
+      <c r="F96" t="s">
+        <v>395</v>
+      </c>
       <c r="J96" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "こなゆき", power: 40, category: 6, group: 2)</v>
@@ -4223,6 +4590,9 @@
       <c r="E97">
         <v>40</v>
       </c>
+      <c r="F97" t="s">
+        <v>395</v>
+      </c>
       <c r="J97" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "このは", power: 40, category: 5, group: 1)</v>
@@ -4244,6 +4614,9 @@
       <c r="E98">
         <v>90</v>
       </c>
+      <c r="F98" t="s">
+        <v>395</v>
+      </c>
       <c r="J98" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "コメットパンチ", power: 90, category: 17, group: 1)</v>
@@ -4265,6 +4638,9 @@
       <c r="E99">
         <v>30</v>
       </c>
+      <c r="F99" t="s">
+        <v>394</v>
+      </c>
       <c r="J99" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ころがる", power: 30, category: 13, group: 1)</v>
@@ -4286,6 +4662,9 @@
       <c r="E100">
         <v>90</v>
       </c>
+      <c r="F100" t="s">
+        <v>395</v>
+      </c>
       <c r="J100" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ゴーストダイブ", power: 90, category: 14, group: 1)</v>
@@ -4307,6 +4686,9 @@
       <c r="E101">
         <v>140</v>
       </c>
+      <c r="F101" t="s">
+        <v>395</v>
+      </c>
       <c r="J101" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ゴッドバード", power: 140, category: 10, group: 1)</v>
@@ -4328,6 +4710,9 @@
       <c r="E102">
         <v>65</v>
       </c>
+      <c r="F102" t="s">
+        <v>395</v>
+      </c>
       <c r="J102" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイケこうせん", power: 65, category: 11, group: 2)</v>
@@ -4349,6 +4734,9 @@
       <c r="E103">
         <v>70</v>
       </c>
+      <c r="F103" t="s">
+        <v>395</v>
+      </c>
       <c r="J103" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイコカッター", power: 70, category: 11, group: 1)</v>
@@ -4370,6 +4758,9 @@
       <c r="E104">
         <v>90</v>
       </c>
+      <c r="F104" t="s">
+        <v>395</v>
+      </c>
       <c r="J104" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイコキネシス", power: 90, category: 11, group: 2)</v>
@@ -4391,6 +4782,9 @@
       <c r="E105">
         <v>80</v>
       </c>
+      <c r="F105" t="s">
+        <v>394</v>
+      </c>
       <c r="J105" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイコショック", power: 80, category: 11, group: 2)</v>
@@ -4412,6 +4806,9 @@
       <c r="E106">
         <v>85</v>
       </c>
+      <c r="F106" t="s">
+        <v>394</v>
+      </c>
       <c r="J106" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイコファング", power: 85, category: 11, group: 1)</v>
@@ -4433,6 +4830,12 @@
       <c r="E107">
         <v>100</v>
       </c>
+      <c r="F107" t="s">
+        <v>394</v>
+      </c>
+      <c r="G107" t="s">
+        <v>398</v>
+      </c>
       <c r="J107" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "サイコブレイク", power: 100, category: 11, group: 2)</v>
@@ -4454,6 +4857,9 @@
       <c r="E108">
         <v>90</v>
       </c>
+      <c r="F108" t="s">
+        <v>395</v>
+      </c>
       <c r="J108" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "さわぐ", power: 90, category: 1, group: 2)</v>
@@ -4475,6 +4881,9 @@
       <c r="E109">
         <v>75</v>
       </c>
+      <c r="F109" t="s">
+        <v>395</v>
+      </c>
       <c r="J109" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シェルブレード", power: 75, category: 3, group: 1)</v>
@@ -4496,6 +4905,9 @@
       <c r="E110">
         <v>150</v>
       </c>
+      <c r="F110" t="s">
+        <v>397</v>
+      </c>
       <c r="J110" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しおふき", power: 150, category: 3, group: 2)</v>
@@ -4517,6 +4929,9 @@
       <c r="E111">
         <v>65</v>
       </c>
+      <c r="F111" t="s">
+        <v>394</v>
+      </c>
       <c r="J111" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しおみず", power: 65, category: 3, group: 2)</v>
@@ -4538,6 +4953,9 @@
       <c r="E112">
         <v>80</v>
       </c>
+      <c r="F112" t="s">
+        <v>395</v>
+      </c>
       <c r="J112" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シザークロス", power: 80, category: 12, group: 1)</v>
@@ -4559,6 +4977,9 @@
       <c r="E113">
         <v>30</v>
       </c>
+      <c r="F113" t="s">
+        <v>395</v>
+      </c>
       <c r="J113" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "したでなめる", power: 30, category: 14, group: 1)</v>
@@ -4580,6 +5001,9 @@
       <c r="E114">
         <v>50</v>
       </c>
+      <c r="F114" t="s">
+        <v>394</v>
+      </c>
       <c r="J114" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しっぺがえし", power: 50, category: 16, group: 1)</v>
@@ -4601,6 +5025,9 @@
       <c r="E115">
         <v>80</v>
       </c>
+      <c r="F115" t="s">
+        <v>395</v>
+      </c>
       <c r="J115" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しねんのずつき", power: 80, category: 11, group: 1)</v>
@@ -4622,6 +5049,9 @@
       <c r="E116">
         <v>15</v>
       </c>
+      <c r="F116" t="s">
+        <v>395</v>
+      </c>
       <c r="J116" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しめつける", power: 15, category: 1, group: 1)</v>
@@ -4643,6 +5073,9 @@
       <c r="E117">
         <v>70</v>
       </c>
+      <c r="F117" t="s">
+        <v>395</v>
+      </c>
       <c r="J117" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シャドークロー", power: 70, category: 14, group: 1)</v>
@@ -4664,6 +5097,9 @@
       <c r="E118">
         <v>90</v>
       </c>
+      <c r="F118" t="s">
+        <v>397</v>
+      </c>
       <c r="J118" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シャドースチール", power: 90, category: 14, group: 1)</v>
@@ -4685,6 +5121,9 @@
       <c r="E119">
         <v>60</v>
       </c>
+      <c r="F119" t="s">
+        <v>395</v>
+      </c>
       <c r="J119" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シャドーパンチ", power: 60, category: 14, group: 1)</v>
@@ -4706,6 +5145,9 @@
       <c r="E120">
         <v>80</v>
       </c>
+      <c r="F120" t="s">
+        <v>395</v>
+      </c>
       <c r="J120" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シャドーボール", power: 80, category: 14, group: 2)</v>
@@ -4727,6 +5169,9 @@
       <c r="E121">
         <v>100</v>
       </c>
+      <c r="F121" t="s">
+        <v>397</v>
+      </c>
       <c r="J121" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "シャドーレイ", power: 100, category: 14, group: 2)</v>
@@ -4748,6 +5193,9 @@
       <c r="E122">
         <v>40</v>
       </c>
+      <c r="F122" t="s">
+        <v>395</v>
+      </c>
       <c r="J122" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しんくうは", power: 40, category: 7, group: 2)</v>
@@ -4769,6 +5217,9 @@
       <c r="E123">
         <v>80</v>
       </c>
+      <c r="F123" t="s">
+        <v>395</v>
+      </c>
       <c r="J123" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しんそく", power: 80, category: 1, group: 1)</v>
@@ -4790,6 +5241,12 @@
       <c r="E124">
         <v>85</v>
       </c>
+      <c r="F124" t="s">
+        <v>394</v>
+      </c>
+      <c r="G124" t="s">
+        <v>396</v>
+      </c>
       <c r="J124" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "しんぴのつるぎ", power: 85, category: 7, group: 2)</v>
@@ -4811,6 +5268,9 @@
       <c r="E125">
         <v>80</v>
       </c>
+      <c r="F125" t="s">
+        <v>395</v>
+      </c>
       <c r="J125" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じごくぐるま", power: 80, category: 7, group: 1)</v>
@@ -4832,6 +5292,9 @@
       <c r="E126">
         <v>80</v>
       </c>
+      <c r="F126" t="s">
+        <v>395</v>
+      </c>
       <c r="J126" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じごくづき", power: 80, category: 16, group: 1)</v>
@@ -4853,6 +5316,9 @@
       <c r="E127">
         <v>100</v>
       </c>
+      <c r="F127" t="s">
+        <v>394</v>
+      </c>
       <c r="J127" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じしん", power: 100, category: 9, group: 1)</v>
@@ -4874,6 +5340,9 @@
       <c r="E128">
         <v>200</v>
       </c>
+      <c r="F128" t="s">
+        <v>394</v>
+      </c>
       <c r="J128" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じたばた", power: 200, category: 1, group: 1)</v>
@@ -4895,6 +5364,9 @@
       <c r="E129">
         <v>75</v>
       </c>
+      <c r="F129" t="s">
+        <v>394</v>
+      </c>
       <c r="J129" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じだんだ", power: 75, category: 9, group: 1)</v>
@@ -4916,6 +5388,9 @@
       <c r="E130">
         <v>60</v>
       </c>
+      <c r="F130" t="s">
+        <v>395</v>
+      </c>
       <c r="J130" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じならし", power: 60, category: 9, group: 1)</v>
@@ -4937,6 +5412,9 @@
       <c r="E131">
         <v>200</v>
       </c>
+      <c r="F131" t="s">
+        <v>395</v>
+      </c>
       <c r="J131" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じばく", power: 200, category: 1, group: 1)</v>
@@ -4958,6 +5436,9 @@
       <c r="E132">
         <v>150</v>
       </c>
+      <c r="F132" t="s">
+        <v>394</v>
+      </c>
       <c r="J132" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "ジャイロボール", power: 150, category: 17, group: 1)</v>
@@ -4979,6 +5460,9 @@
       <c r="E133">
         <v>90</v>
       </c>
+      <c r="F133" t="s">
+        <v>395</v>
+      </c>
       <c r="J133" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じゃれつく", power: 90, category: 18, group: 1)</v>
@@ -5000,6 +5484,9 @@
       <c r="E134">
         <v>95</v>
       </c>
+      <c r="F134" t="s">
+        <v>395</v>
+      </c>
       <c r="J134" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "10まんばりき", power: 95, category: 9, group: 1)</v>
@@ -5021,6 +5508,9 @@
       <c r="E135">
         <v>90</v>
       </c>
+      <c r="F135" t="s">
+        <v>395</v>
+      </c>
       <c r="J135" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "10まんボルト", power: 90, category: 4, group: 2)</v>
@@ -5042,6 +5532,9 @@
       <c r="E136">
         <v>80</v>
       </c>
+      <c r="F136" t="s">
+        <v>395</v>
+      </c>
       <c r="J136" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "じんつうりき", power: 80, category: 11, group: 2)</v>
@@ -5063,6 +5556,9 @@
       <c r="E137">
         <v>25</v>
       </c>
+      <c r="F137" t="s">
+        <v>394</v>
+      </c>
       <c r="J137" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "スイープビンタ", power: 25, category: 1, group: 1)</v>
@@ -5084,6 +5580,9 @@
       <c r="E138">
         <v>20</v>
       </c>
+      <c r="F138" t="s">
+        <v>395</v>
+      </c>
       <c r="J138" t="str">
         <f t="shared" si="0"/>
         <v>Skill.create(name: "すいとる", power: 20, category: 5, group: 2)</v>
@@ -5094,7 +5593,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>393</v>
       </c>
       <c r="C139">
         <v>15</v>
@@ -5105,9 +5604,12 @@
       <c r="E139">
         <v>110</v>
       </c>
+      <c r="F139" t="s">
+        <v>395</v>
+      </c>
       <c r="J139" t="str">
         <f t="shared" si="0"/>
-        <v>Skill.create(name: "スケルノイズ", power: 110, category: 15, group: 2)</v>
+        <v>Skill.create(name: "スケイルノイズ", power: 110, category: 15, group: 2)</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5115,7 +5617,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C140">
         <v>7</v>
@@ -5125,6 +5627,9 @@
       </c>
       <c r="E140">
         <v>150</v>
+      </c>
+      <c r="F140" t="s">
+        <v>395</v>
       </c>
       <c r="J140" t="str">
         <f t="shared" si="0"/>
@@ -5136,7 +5641,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>392</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -5147,9 +5652,12 @@
       <c r="E141">
         <v>120</v>
       </c>
+      <c r="F141" t="s">
+        <v>395</v>
+      </c>
       <c r="J141" t="str">
         <f t="shared" si="0"/>
-        <v>Skill.create(name: "ステミタックル", power: 120, category: 1, group: 1)</v>
+        <v>Skill.create(name: "すてみタックル", power: 120, category: 1, group: 1)</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5157,7 +5665,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C142">
         <v>13</v>
@@ -5167,6 +5675,9 @@
       </c>
       <c r="E142">
         <v>100</v>
+      </c>
+      <c r="F142" t="s">
+        <v>395</v>
       </c>
       <c r="J142" t="str">
         <f t="shared" si="0"/>
@@ -5178,7 +5689,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -5188,6 +5699,9 @@
       </c>
       <c r="E143">
         <v>35</v>
+      </c>
+      <c r="F143" t="s">
+        <v>395</v>
       </c>
       <c r="J143" t="str">
         <f t="shared" si="0"/>
@@ -5199,7 +5713,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -5209,6 +5723,9 @@
       </c>
       <c r="E144">
         <v>65</v>
+      </c>
+      <c r="F144" t="s">
+        <v>395</v>
       </c>
       <c r="J144" t="str">
         <f t="shared" si="0"/>
@@ -5220,7 +5737,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -5230,6 +5747,9 @@
       </c>
       <c r="E145">
         <v>60</v>
+      </c>
+      <c r="F145" t="s">
+        <v>395</v>
       </c>
       <c r="J145" t="str">
         <f t="shared" si="0"/>
@@ -5241,7 +5761,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C146">
         <v>17</v>
@@ -5251,6 +5771,9 @@
       </c>
       <c r="E146">
         <v>70</v>
+      </c>
+      <c r="F146" t="s">
+        <v>395</v>
       </c>
       <c r="J146" t="str">
         <f t="shared" si="0"/>
@@ -5262,7 +5785,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C147">
         <v>8</v>
@@ -5272,6 +5795,9 @@
       </c>
       <c r="E147">
         <v>30</v>
+      </c>
+      <c r="F147" t="s">
+        <v>395</v>
       </c>
       <c r="J147" t="str">
         <f t="shared" si="0"/>
@@ -5283,7 +5809,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -5293,6 +5819,9 @@
       </c>
       <c r="E148">
         <v>70</v>
+      </c>
+      <c r="F148" t="s">
+        <v>395</v>
       </c>
       <c r="J148" t="str">
         <f t="shared" si="0"/>
@@ -5304,7 +5833,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C149">
         <v>7</v>
@@ -5314,6 +5843,12 @@
       </c>
       <c r="E149">
         <v>90</v>
+      </c>
+      <c r="F149" t="s">
+        <v>394</v>
+      </c>
+      <c r="G149" t="s">
+        <v>399</v>
       </c>
       <c r="J149" t="str">
         <f t="shared" si="0"/>
@@ -5325,7 +5860,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C150">
         <v>5</v>
@@ -5335,6 +5870,9 @@
       </c>
       <c r="E150">
         <v>120</v>
+      </c>
+      <c r="F150" t="s">
+        <v>394</v>
       </c>
       <c r="J150" t="str">
         <f t="shared" si="0"/>
@@ -5346,7 +5884,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C151">
         <v>5</v>
@@ -5356,6 +5894,9 @@
       </c>
       <c r="E151">
         <v>125</v>
+      </c>
+      <c r="F151" t="s">
+        <v>394</v>
       </c>
       <c r="J151" t="str">
         <f t="shared" si="0"/>
@@ -5367,7 +5908,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C152">
         <v>18</v>
@@ -5377,6 +5918,9 @@
       </c>
       <c r="E152">
         <v>75</v>
+      </c>
+      <c r="F152" t="s">
+        <v>395</v>
       </c>
       <c r="J152" t="str">
         <f t="shared" si="0"/>
@@ -5388,7 +5932,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C153">
         <v>10</v>
@@ -5398,6 +5942,9 @@
       </c>
       <c r="E153">
         <v>90</v>
+      </c>
+      <c r="F153" t="s">
+        <v>395</v>
       </c>
       <c r="J153" t="str">
         <f t="shared" si="0"/>
@@ -5409,7 +5956,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -5419,6 +5966,9 @@
       </c>
       <c r="E154">
         <v>40</v>
+      </c>
+      <c r="F154" t="s">
+        <v>395</v>
       </c>
       <c r="J154" t="str">
         <f t="shared" si="0"/>
@@ -5430,7 +5980,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C155">
         <v>3</v>
@@ -5440,6 +5990,9 @@
       </c>
       <c r="E155">
         <v>80</v>
+      </c>
+      <c r="F155" t="s">
+        <v>395</v>
       </c>
       <c r="J155" t="str">
         <f t="shared" si="0"/>
@@ -5451,7 +6004,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -5461,6 +6014,9 @@
       </c>
       <c r="E156">
         <v>80</v>
+      </c>
+      <c r="F156" t="s">
+        <v>395</v>
       </c>
       <c r="J156" t="str">
         <f t="shared" si="0"/>
@@ -5472,7 +6028,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C157">
         <v>14</v>
@@ -5482,6 +6038,9 @@
       </c>
       <c r="E157">
         <v>65</v>
+      </c>
+      <c r="F157" t="s">
+        <v>394</v>
       </c>
       <c r="J157" t="str">
         <f t="shared" si="0"/>
@@ -5493,7 +6052,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C158">
         <v>15</v>
@@ -5503,6 +6062,9 @@
       </c>
       <c r="E158">
         <v>40</v>
+      </c>
+      <c r="F158" t="s">
+        <v>394</v>
       </c>
       <c r="J158" t="str">
         <f t="shared" si="0"/>
@@ -5514,7 +6076,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C159">
         <v>5</v>
@@ -5524,6 +6086,9 @@
       </c>
       <c r="E159">
         <v>80</v>
+      </c>
+      <c r="F159" t="s">
+        <v>395</v>
       </c>
       <c r="J159" t="str">
         <f t="shared" si="0"/>
@@ -5535,7 +6100,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -5545,6 +6110,9 @@
       </c>
       <c r="E160">
         <v>25</v>
+      </c>
+      <c r="F160" t="s">
+        <v>394</v>
       </c>
       <c r="J160" t="str">
         <f t="shared" si="0"/>
@@ -5556,7 +6124,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C161">
         <v>9</v>
@@ -5566,6 +6134,9 @@
       </c>
       <c r="E161">
         <v>90</v>
+      </c>
+      <c r="F161" t="s">
+        <v>395</v>
       </c>
       <c r="J161" t="str">
         <f t="shared" si="0"/>
@@ -5577,7 +6148,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -5587,6 +6158,9 @@
       </c>
       <c r="E162">
         <v>250</v>
+      </c>
+      <c r="F162" t="s">
+        <v>395</v>
       </c>
       <c r="J162" t="str">
         <f t="shared" si="0"/>
@@ -5598,7 +6172,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C163">
         <v>3</v>
@@ -5608,6 +6182,9 @@
       </c>
       <c r="E163">
         <v>80</v>
+      </c>
+      <c r="F163" t="s">
+        <v>395</v>
       </c>
       <c r="J163" t="str">
         <f t="shared" si="0"/>
@@ -5619,7 +6196,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C164">
         <v>15</v>
@@ -5629,6 +6206,9 @@
       </c>
       <c r="E164">
         <v>100</v>
+      </c>
+      <c r="F164" t="s">
+        <v>394</v>
       </c>
       <c r="J164" t="str">
         <f t="shared" si="0"/>
@@ -5640,7 +6220,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C165">
         <v>2</v>
@@ -5650,6 +6230,9 @@
       </c>
       <c r="E165">
         <v>110</v>
+      </c>
+      <c r="F165" t="s">
+        <v>395</v>
       </c>
       <c r="J165" t="str">
         <f t="shared" si="0"/>
@@ -5661,7 +6244,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C166">
         <v>3</v>
@@ -5671,6 +6254,9 @@
       </c>
       <c r="E166">
         <v>90</v>
+      </c>
+      <c r="F166" t="s">
+        <v>395</v>
       </c>
       <c r="J166" t="str">
         <f t="shared" si="0"/>
@@ -5682,7 +6268,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C167">
         <v>8</v>
@@ -5692,6 +6278,9 @@
       </c>
       <c r="E167">
         <v>120</v>
+      </c>
+      <c r="F167" t="s">
+        <v>395</v>
       </c>
       <c r="J167" t="str">
         <f t="shared" si="0"/>
@@ -5703,7 +6292,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -5713,6 +6302,9 @@
       </c>
       <c r="E168">
         <v>35</v>
+      </c>
+      <c r="F168" t="s">
+        <v>394</v>
       </c>
       <c r="J168" t="str">
         <f t="shared" si="0"/>
@@ -5724,7 +6316,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C169">
         <v>15</v>
@@ -5734,6 +6326,9 @@
       </c>
       <c r="E169">
         <v>40</v>
+      </c>
+      <c r="F169" t="s">
+        <v>394</v>
       </c>
       <c r="J169" t="str">
         <f t="shared" si="0"/>
@@ -5745,7 +6340,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C170">
         <v>17</v>
@@ -5755,6 +6350,12 @@
       </c>
       <c r="E170">
         <v>60</v>
+      </c>
+      <c r="F170" t="s">
+        <v>394</v>
+      </c>
+      <c r="G170" t="s">
+        <v>396</v>
       </c>
       <c r="J170" t="str">
         <f t="shared" si="0"/>
@@ -5766,7 +6367,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C171">
         <v>16</v>
@@ -5776,6 +6377,9 @@
       </c>
       <c r="E171">
         <v>60</v>
+      </c>
+      <c r="F171" t="s">
+        <v>394</v>
       </c>
       <c r="J171" t="str">
         <f t="shared" si="0"/>
@@ -5787,7 +6391,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -5797,6 +6401,9 @@
       </c>
       <c r="E172">
         <v>50</v>
+      </c>
+      <c r="F172" t="s">
+        <v>395</v>
       </c>
       <c r="J172" t="str">
         <f t="shared" si="0"/>
@@ -5808,7 +6415,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C173">
         <v>18</v>
@@ -5818,6 +6425,9 @@
       </c>
       <c r="E173">
         <v>40</v>
+      </c>
+      <c r="F173" t="s">
+        <v>395</v>
       </c>
       <c r="J173" t="str">
         <f t="shared" si="0"/>
@@ -5829,7 +6439,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C174">
         <v>10</v>
@@ -5839,6 +6449,9 @@
       </c>
       <c r="E174">
         <v>60</v>
+      </c>
+      <c r="F174" t="s">
+        <v>395</v>
       </c>
       <c r="J174" t="str">
         <f t="shared" si="0"/>
@@ -5850,7 +6463,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>196</v>
+        <v>378</v>
       </c>
       <c r="C175">
         <v>16</v>
@@ -5861,9 +6474,12 @@
       <c r="E175">
         <v>20</v>
       </c>
+      <c r="F175" t="s">
+        <v>394</v>
+      </c>
       <c r="J175" t="str">
         <f t="shared" si="0"/>
-        <v>Skill.create(name: "つけあがり", power: 20, category: 16, group: 1)</v>
+        <v>Skill.create(name: "つけあがる", power: 20, category: 16, group: 1)</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -5871,7 +6487,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C176">
         <v>16</v>
@@ -5881,6 +6497,9 @@
       </c>
       <c r="E176">
         <v>70</v>
+      </c>
+      <c r="F176" t="s">
+        <v>395</v>
       </c>
       <c r="J176" t="str">
         <f t="shared" si="0"/>
@@ -5892,7 +6511,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C177">
         <v>7</v>
@@ -5902,6 +6521,9 @@
       </c>
       <c r="E177">
         <v>15</v>
+      </c>
+      <c r="F177" t="s">
+        <v>394</v>
       </c>
       <c r="J177" t="str">
         <f t="shared" si="0"/>
@@ -5913,7 +6535,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C178">
         <v>10</v>
@@ -5923,6 +6545,9 @@
       </c>
       <c r="E178">
         <v>35</v>
+      </c>
+      <c r="F178" t="s">
+        <v>395</v>
       </c>
       <c r="J178" t="str">
         <f t="shared" si="0"/>
@@ -5934,7 +6559,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -5944,6 +6569,9 @@
       </c>
       <c r="E179">
         <v>65</v>
+      </c>
+      <c r="F179" t="s">
+        <v>395</v>
       </c>
       <c r="J179" t="str">
         <f t="shared" si="0"/>
@@ -5955,7 +6583,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C180">
         <v>10</v>
@@ -5965,6 +6593,9 @@
       </c>
       <c r="E180">
         <v>60</v>
+      </c>
+      <c r="F180" t="s">
+        <v>395</v>
       </c>
       <c r="J180" t="str">
         <f t="shared" si="0"/>
@@ -5976,7 +6607,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C181">
         <v>10</v>
@@ -5986,6 +6617,9 @@
       </c>
       <c r="E181">
         <v>60</v>
+      </c>
+      <c r="F181" t="s">
+        <v>395</v>
       </c>
       <c r="J181" t="str">
         <f t="shared" si="0"/>
@@ -5997,7 +6631,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C182">
         <v>6</v>
@@ -6007,6 +6641,9 @@
       </c>
       <c r="E182">
         <v>85</v>
+      </c>
+      <c r="F182" t="s">
+        <v>395</v>
       </c>
       <c r="J182" t="str">
         <f t="shared" si="0"/>
@@ -6018,7 +6655,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C183">
         <v>6</v>
@@ -6028,6 +6665,9 @@
       </c>
       <c r="E183">
         <v>25</v>
+      </c>
+      <c r="F183" t="s">
+        <v>394</v>
       </c>
       <c r="J183" t="str">
         <f t="shared" si="0"/>
@@ -6039,7 +6679,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C184">
         <v>5</v>
@@ -6049,6 +6689,9 @@
       </c>
       <c r="E184">
         <v>45</v>
+      </c>
+      <c r="F184" t="s">
+        <v>395</v>
       </c>
       <c r="J184" t="str">
         <f t="shared" si="0"/>
@@ -6060,7 +6703,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -6070,6 +6713,9 @@
       </c>
       <c r="E185">
         <v>40</v>
+      </c>
+      <c r="F185" t="s">
+        <v>397</v>
       </c>
       <c r="J185" t="str">
         <f t="shared" si="0"/>
@@ -6081,7 +6727,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C186">
         <v>17</v>
@@ -6091,6 +6737,9 @@
       </c>
       <c r="E186">
         <v>140</v>
+      </c>
+      <c r="F186" t="s">
+        <v>395</v>
       </c>
       <c r="J186" t="str">
         <f t="shared" si="0"/>
@@ -6102,7 +6751,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C187">
         <v>12</v>
@@ -6112,6 +6761,9 @@
       </c>
       <c r="E187">
         <v>90</v>
+      </c>
+      <c r="F187" t="s">
+        <v>395</v>
       </c>
       <c r="J187" t="str">
         <f t="shared" si="0"/>
@@ -6123,7 +6775,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C188">
         <v>16</v>
@@ -6133,6 +6785,9 @@
       </c>
       <c r="E188">
         <v>85</v>
+      </c>
+      <c r="F188" t="s">
+        <v>395</v>
       </c>
       <c r="J188" t="str">
         <f t="shared" si="0"/>
@@ -6144,7 +6799,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -6154,6 +6809,9 @@
       </c>
       <c r="E189">
         <v>40</v>
+      </c>
+      <c r="F189" t="s">
+        <v>395</v>
       </c>
       <c r="J189" t="str">
         <f t="shared" si="0"/>
@@ -6165,7 +6823,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -6175,6 +6833,9 @@
       </c>
       <c r="E190">
         <v>85</v>
+      </c>
+      <c r="F190" t="s">
+        <v>394</v>
       </c>
       <c r="J190" t="str">
         <f t="shared" si="0"/>
@@ -6186,7 +6847,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C191">
         <v>4</v>
@@ -6196,6 +6857,9 @@
       </c>
       <c r="E191">
         <v>60</v>
+      </c>
+      <c r="F191" t="s">
+        <v>395</v>
       </c>
       <c r="J191" t="str">
         <f t="shared" si="0"/>
@@ -6207,7 +6871,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -6217,6 +6881,9 @@
       </c>
       <c r="E192">
         <v>40</v>
+      </c>
+      <c r="F192" t="s">
+        <v>395</v>
       </c>
       <c r="J192" t="str">
         <f t="shared" si="0"/>
@@ -6228,7 +6895,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C193">
         <v>4</v>
@@ -6238,6 +6905,9 @@
       </c>
       <c r="E193">
         <v>120</v>
+      </c>
+      <c r="F193" t="s">
+        <v>395</v>
       </c>
       <c r="J193" t="str">
         <f t="shared" si="0"/>
@@ -6249,7 +6919,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -6259,6 +6929,9 @@
       </c>
       <c r="E194">
         <v>90</v>
+      </c>
+      <c r="F194" t="s">
+        <v>395</v>
       </c>
       <c r="J194" t="str">
         <f t="shared" si="0"/>
@@ -6270,7 +6943,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -6280,6 +6953,9 @@
       </c>
       <c r="E195">
         <v>140</v>
+      </c>
+      <c r="F195" t="s">
+        <v>395</v>
       </c>
       <c r="J195" t="str">
         <f t="shared" si="0"/>
@@ -6291,7 +6967,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C196">
         <v>12</v>
@@ -6301,6 +6977,9 @@
       </c>
       <c r="E196">
         <v>50</v>
+      </c>
+      <c r="F196" t="s">
+        <v>395</v>
       </c>
       <c r="J196" t="str">
         <f t="shared" si="0"/>
@@ -6312,7 +6991,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C197">
         <v>12</v>
@@ -6322,6 +7001,9 @@
       </c>
       <c r="E197">
         <v>80</v>
+      </c>
+      <c r="F197" t="s">
+        <v>395</v>
       </c>
       <c r="J197" t="str">
         <f t="shared" si="0"/>
@@ -6333,7 +7015,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -6343,6 +7025,9 @@
       </c>
       <c r="E198">
         <v>85</v>
+      </c>
+      <c r="F198" t="s">
+        <v>395</v>
       </c>
       <c r="J198" t="str">
         <f t="shared" si="0"/>
@@ -6354,7 +7039,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C199">
         <v>7</v>
@@ -6364,6 +7049,9 @@
       </c>
       <c r="E199">
         <v>130</v>
+      </c>
+      <c r="F199" t="s">
+        <v>395</v>
       </c>
       <c r="J199" t="str">
         <f t="shared" si="0"/>
@@ -6375,7 +7063,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C200">
         <v>7</v>
@@ -6385,6 +7073,9 @@
       </c>
       <c r="E200">
         <v>60</v>
+      </c>
+      <c r="F200" t="s">
+        <v>395</v>
       </c>
       <c r="J200" t="str">
         <f t="shared" si="0"/>
@@ -6396,7 +7087,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -6406,6 +7097,9 @@
       </c>
       <c r="E201">
         <v>80</v>
+      </c>
+      <c r="F201" t="s">
+        <v>395</v>
       </c>
       <c r="J201" t="str">
         <f t="shared" si="0"/>
@@ -6417,7 +7111,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C202">
         <v>2</v>
@@ -6427,6 +7121,9 @@
       </c>
       <c r="E202">
         <v>150</v>
+      </c>
+      <c r="F202" t="s">
+        <v>395</v>
       </c>
       <c r="J202" t="str">
         <f t="shared" si="0"/>
@@ -6438,7 +7135,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C203">
         <v>5</v>
@@ -6448,6 +7145,9 @@
       </c>
       <c r="E203">
         <v>35</v>
+      </c>
+      <c r="F203" t="s">
+        <v>395</v>
       </c>
       <c r="J203" t="str">
         <f t="shared" si="0"/>
@@ -6459,7 +7159,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C204">
         <v>7</v>
@@ -6469,6 +7169,12 @@
       </c>
       <c r="E204">
         <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>394</v>
+      </c>
+      <c r="G204" t="s">
+        <v>396</v>
       </c>
       <c r="J204" t="str">
         <f t="shared" si="0"/>
@@ -6480,7 +7186,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C205">
         <v>5</v>
@@ -6490,6 +7196,9 @@
       </c>
       <c r="E205">
         <v>70</v>
+      </c>
+      <c r="F205" t="s">
+        <v>395</v>
       </c>
       <c r="J205" t="str">
         <f t="shared" si="0"/>
@@ -6501,7 +7210,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C206">
         <v>12</v>
@@ -6511,6 +7220,9 @@
       </c>
       <c r="E206">
         <v>70</v>
+      </c>
+      <c r="F206" t="s">
+        <v>395</v>
       </c>
       <c r="J206" t="str">
         <f t="shared" si="0"/>
@@ -6522,7 +7234,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C207">
         <v>8</v>
@@ -6532,6 +7244,9 @@
       </c>
       <c r="E207">
         <v>80</v>
+      </c>
+      <c r="F207" t="s">
+        <v>395</v>
       </c>
       <c r="J207" t="str">
         <f t="shared" si="0"/>
@@ -6543,7 +7258,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C208">
         <v>8</v>
@@ -6553,6 +7268,9 @@
       </c>
       <c r="E208">
         <v>50</v>
+      </c>
+      <c r="F208" t="s">
+        <v>395</v>
       </c>
       <c r="J208" t="str">
         <f t="shared" si="0"/>
@@ -6564,7 +7282,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C209">
         <v>8</v>
@@ -6574,6 +7292,9 @@
       </c>
       <c r="E209">
         <v>15</v>
+      </c>
+      <c r="F209" t="s">
+        <v>395</v>
       </c>
       <c r="J209" t="str">
         <f t="shared" si="0"/>
@@ -6585,7 +7306,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C210">
         <v>16</v>
@@ -6595,6 +7316,9 @@
       </c>
       <c r="E210">
         <v>80</v>
+      </c>
+      <c r="F210" t="s">
+        <v>395</v>
       </c>
       <c r="J210" t="str">
         <f t="shared" si="0"/>
@@ -6606,7 +7330,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C211">
         <v>15</v>
@@ -6616,6 +7340,12 @@
       </c>
       <c r="E211">
         <v>50</v>
+      </c>
+      <c r="F211" t="s">
+        <v>394</v>
+      </c>
+      <c r="G211" t="s">
+        <v>396</v>
       </c>
       <c r="J211" t="str">
         <f t="shared" si="0"/>
@@ -6627,7 +7357,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C212">
         <v>15</v>
@@ -6637,6 +7367,9 @@
       </c>
       <c r="E212">
         <v>80</v>
+      </c>
+      <c r="F212" t="s">
+        <v>395</v>
       </c>
       <c r="J212" t="str">
         <f t="shared" si="0"/>
@@ -6648,7 +7381,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C213">
         <v>15</v>
@@ -6658,6 +7391,12 @@
       </c>
       <c r="E213">
         <v>100</v>
+      </c>
+      <c r="F213" t="s">
+        <v>394</v>
+      </c>
+      <c r="G213" t="s">
+        <v>396</v>
       </c>
       <c r="J213" t="str">
         <f t="shared" si="0"/>
@@ -6669,7 +7408,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C214">
         <v>15</v>
@@ -6679,6 +7418,9 @@
       </c>
       <c r="E214">
         <v>60</v>
+      </c>
+      <c r="F214" t="s">
+        <v>395</v>
       </c>
       <c r="J214" t="str">
         <f t="shared" si="0"/>
@@ -6690,7 +7432,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C215">
         <v>5</v>
@@ -6700,6 +7442,9 @@
       </c>
       <c r="E215">
         <v>80</v>
+      </c>
+      <c r="F215" t="s">
+        <v>395</v>
       </c>
       <c r="J215" t="str">
         <f t="shared" si="0"/>
@@ -6711,7 +7456,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C216">
         <v>10</v>
@@ -6721,6 +7466,9 @@
       </c>
       <c r="E216">
         <v>80</v>
+      </c>
+      <c r="F216" t="s">
+        <v>395</v>
       </c>
       <c r="J216" t="str">
         <f t="shared" si="0"/>
@@ -6732,7 +7480,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C217">
         <v>9</v>
@@ -6742,6 +7490,9 @@
       </c>
       <c r="E217">
         <v>80</v>
+      </c>
+      <c r="F217" t="s">
+        <v>395</v>
       </c>
       <c r="J217" t="str">
         <f t="shared" si="0"/>
@@ -6753,7 +7504,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C218">
         <v>18</v>
@@ -6763,6 +7514,9 @@
       </c>
       <c r="E218">
         <v>50</v>
+      </c>
+      <c r="F218" t="s">
+        <v>395</v>
       </c>
       <c r="J218" t="str">
         <f t="shared" si="0"/>
@@ -6774,7 +7528,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C219">
         <v>7</v>
@@ -6784,6 +7538,9 @@
       </c>
       <c r="E219">
         <v>75</v>
+      </c>
+      <c r="F219" t="s">
+        <v>395</v>
       </c>
       <c r="J219" t="str">
         <f t="shared" si="0"/>
@@ -6795,7 +7552,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C220">
         <v>9</v>
@@ -6805,6 +7562,9 @@
       </c>
       <c r="E220">
         <v>20</v>
+      </c>
+      <c r="F220" t="s">
+        <v>395</v>
       </c>
       <c r="J220" t="str">
         <f t="shared" si="0"/>
@@ -6816,7 +7576,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C221">
         <v>16</v>
@@ -6826,6 +7586,9 @@
       </c>
       <c r="E221">
         <v>60</v>
+      </c>
+      <c r="F221" t="s">
+        <v>395</v>
       </c>
       <c r="J221" t="str">
         <f t="shared" si="0"/>
@@ -6837,7 +7600,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C222">
         <v>16</v>
@@ -6847,6 +7610,9 @@
       </c>
       <c r="E222">
         <v>85</v>
+      </c>
+      <c r="F222" t="s">
+        <v>395</v>
       </c>
       <c r="J222" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +7624,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C223">
         <v>16</v>
@@ -6868,6 +7634,9 @@
       </c>
       <c r="E223">
         <v>130</v>
+      </c>
+      <c r="F223" t="s">
+        <v>394</v>
       </c>
       <c r="J223" t="str">
         <f t="shared" si="0"/>
@@ -6879,7 +7648,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C224">
         <v>3</v>
@@ -6889,6 +7658,9 @@
       </c>
       <c r="E224">
         <v>90</v>
+      </c>
+      <c r="F224" t="s">
+        <v>394</v>
       </c>
       <c r="J224" t="str">
         <f t="shared" si="0"/>
@@ -6900,7 +7672,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C225">
         <v>2</v>
@@ -6910,6 +7682,9 @@
       </c>
       <c r="E225">
         <v>50</v>
+      </c>
+      <c r="F225" t="s">
+        <v>395</v>
       </c>
       <c r="J225" t="str">
         <f t="shared" si="0"/>
@@ -6921,7 +7696,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C226">
         <v>7</v>
@@ -6931,6 +7706,9 @@
       </c>
       <c r="E226">
         <v>30</v>
+      </c>
+      <c r="F226" t="s">
+        <v>394</v>
       </c>
       <c r="J226" t="str">
         <f t="shared" si="0"/>
@@ -6942,7 +7720,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -6952,6 +7730,9 @@
       </c>
       <c r="E227">
         <v>40</v>
+      </c>
+      <c r="F227" t="s">
+        <v>395</v>
       </c>
       <c r="J227" t="str">
         <f t="shared" si="0"/>
@@ -6963,7 +7744,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -6973,6 +7754,9 @@
       </c>
       <c r="E228">
         <v>40</v>
+      </c>
+      <c r="F228" t="s">
+        <v>395</v>
       </c>
       <c r="J228" t="str">
         <f t="shared" si="0"/>
@@ -6984,7 +7768,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C229">
         <v>3</v>
@@ -6994,6 +7778,9 @@
       </c>
       <c r="E229">
         <v>80</v>
+      </c>
+      <c r="F229" t="s">
+        <v>395</v>
       </c>
       <c r="J229" t="str">
         <f t="shared" si="0"/>
@@ -7005,7 +7792,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -7015,6 +7802,9 @@
       </c>
       <c r="E230">
         <v>95</v>
+      </c>
+      <c r="F230" t="s">
+        <v>395</v>
       </c>
       <c r="J230" t="str">
         <f t="shared" si="0"/>
@@ -7026,7 +7816,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C231">
         <v>3</v>
@@ -7036,6 +7826,9 @@
       </c>
       <c r="E231">
         <v>80</v>
+      </c>
+      <c r="F231" t="s">
+        <v>395</v>
       </c>
       <c r="J231" t="str">
         <f t="shared" si="0"/>
@@ -7047,7 +7840,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C232">
         <v>11</v>
@@ -7057,6 +7850,9 @@
       </c>
       <c r="E232">
         <v>50</v>
+      </c>
+      <c r="F232" t="s">
+        <v>395</v>
       </c>
       <c r="J232" t="str">
         <f t="shared" si="0"/>
@@ -7068,7 +7864,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C233">
         <v>1</v>
@@ -7078,6 +7874,9 @@
       </c>
       <c r="E233">
         <v>85</v>
+      </c>
+      <c r="F233" t="s">
+        <v>394</v>
       </c>
       <c r="J233" t="str">
         <f t="shared" si="0"/>
@@ -7089,7 +7888,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C234">
         <v>5</v>
@@ -7099,6 +7898,9 @@
       </c>
       <c r="E234">
         <v>150</v>
+      </c>
+      <c r="F234" t="s">
+        <v>395</v>
       </c>
       <c r="J234" t="str">
         <f t="shared" si="0"/>
@@ -7110,7 +7912,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C235">
         <v>3</v>
@@ -7120,6 +7922,9 @@
       </c>
       <c r="E235">
         <v>150</v>
+      </c>
+      <c r="F235" t="s">
+        <v>395</v>
       </c>
       <c r="J235" t="str">
         <f t="shared" si="0"/>
@@ -7131,7 +7936,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C236">
         <v>3</v>
@@ -7141,6 +7946,9 @@
       </c>
       <c r="E236">
         <v>110</v>
+      </c>
+      <c r="F236" t="s">
+        <v>395</v>
       </c>
       <c r="J236" t="str">
         <f t="shared" si="0"/>
@@ -7152,7 +7960,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -7162,6 +7970,9 @@
       </c>
       <c r="E237">
         <v>90</v>
+      </c>
+      <c r="F237" t="s">
+        <v>395</v>
       </c>
       <c r="J237" t="str">
         <f t="shared" si="0"/>
@@ -7173,7 +7984,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -7183,6 +7994,9 @@
       </c>
       <c r="E238">
         <v>150</v>
+      </c>
+      <c r="F238" t="s">
+        <v>395</v>
       </c>
       <c r="J238" t="str">
         <f t="shared" si="0"/>
@@ -7194,7 +8008,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C239">
         <v>17</v>
@@ -7204,6 +8018,9 @@
       </c>
       <c r="E239">
         <v>70</v>
+      </c>
+      <c r="F239" t="s">
+        <v>395</v>
       </c>
       <c r="J239" t="str">
         <f t="shared" si="0"/>
@@ -7215,7 +8032,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C240">
         <v>1</v>
@@ -7225,6 +8042,9 @@
       </c>
       <c r="E240">
         <v>300</v>
+      </c>
+      <c r="F240" t="s">
+        <v>394</v>
       </c>
       <c r="J240" t="str">
         <f t="shared" si="0"/>
@@ -7236,7 +8056,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -7246,6 +8066,9 @@
       </c>
       <c r="E241">
         <v>55</v>
+      </c>
+      <c r="F241" t="s">
+        <v>395</v>
       </c>
       <c r="J241" t="str">
         <f t="shared" si="0"/>
@@ -7257,7 +8080,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C242">
         <v>16</v>
@@ -7267,6 +8090,9 @@
       </c>
       <c r="E242">
         <v>65</v>
+      </c>
+      <c r="F242" t="s">
+        <v>394</v>
       </c>
       <c r="J242" t="str">
         <f t="shared" si="0"/>
@@ -7278,7 +8104,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -7288,6 +8114,9 @@
       </c>
       <c r="E243">
         <v>40</v>
+      </c>
+      <c r="F243" t="s">
+        <v>395</v>
       </c>
       <c r="J243" t="str">
         <f t="shared" si="0"/>
@@ -7299,7 +8128,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C244">
         <v>7</v>
@@ -7309,6 +8138,9 @@
       </c>
       <c r="E244">
         <v>60</v>
+      </c>
+      <c r="F244" t="s">
+        <v>395</v>
       </c>
       <c r="J244" t="str">
         <f t="shared" si="0"/>
@@ -7320,7 +8152,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C245">
         <v>5</v>
@@ -7330,6 +8162,9 @@
       </c>
       <c r="E245">
         <v>55</v>
+      </c>
+      <c r="F245" t="s">
+        <v>395</v>
       </c>
       <c r="J245" t="str">
         <f t="shared" si="0"/>
@@ -7341,7 +8176,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C246">
         <v>7</v>
@@ -7351,6 +8186,9 @@
       </c>
       <c r="E246">
         <v>80</v>
+      </c>
+      <c r="F246" t="s">
+        <v>395</v>
       </c>
       <c r="J246" t="str">
         <f t="shared" si="0"/>
@@ -7362,7 +8200,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C247">
         <v>5</v>
@@ -7372,6 +8210,9 @@
       </c>
       <c r="E247">
         <v>120</v>
+      </c>
+      <c r="F247" t="s">
+        <v>395</v>
       </c>
       <c r="J247" t="str">
         <f t="shared" si="0"/>
@@ -7383,7 +8224,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C248">
         <v>5</v>
@@ -7393,6 +8234,9 @@
       </c>
       <c r="E248">
         <v>90</v>
+      </c>
+      <c r="F248" t="s">
+        <v>395</v>
       </c>
       <c r="J248" t="str">
         <f t="shared" si="0"/>
@@ -7404,7 +8248,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C249">
         <v>17</v>
@@ -7414,6 +8258,9 @@
       </c>
       <c r="E249">
         <v>140</v>
+      </c>
+      <c r="F249" t="s">
+        <v>395</v>
       </c>
       <c r="J249" t="str">
         <f t="shared" si="0"/>
@@ -7425,7 +8272,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C250">
         <v>16</v>
@@ -7435,6 +8282,9 @@
       </c>
       <c r="E250">
         <v>55</v>
+      </c>
+      <c r="F250" t="s">
+        <v>395</v>
       </c>
       <c r="J250" t="str">
         <f t="shared" si="0"/>
@@ -7446,7 +8296,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C251">
         <v>7</v>
@@ -7456,6 +8306,9 @@
       </c>
       <c r="E251">
         <v>120</v>
+      </c>
+      <c r="F251" t="s">
+        <v>395</v>
       </c>
       <c r="J251" t="str">
         <f t="shared" si="0"/>
@@ -7467,7 +8320,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C252">
         <v>1</v>
@@ -7477,6 +8330,9 @@
       </c>
       <c r="E252">
         <v>140</v>
+      </c>
+      <c r="F252" t="s">
+        <v>395</v>
       </c>
       <c r="J252" t="str">
         <f t="shared" si="0"/>
@@ -7488,7 +8344,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C253">
         <v>7</v>
@@ -7498,6 +8354,9 @@
       </c>
       <c r="E253">
         <v>100</v>
+      </c>
+      <c r="F253" t="s">
+        <v>395</v>
       </c>
       <c r="J253" t="str">
         <f t="shared" si="0"/>
@@ -7509,7 +8368,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C254">
         <v>3</v>
@@ -7519,6 +8378,9 @@
       </c>
       <c r="E254">
         <v>65</v>
+      </c>
+      <c r="F254" t="s">
+        <v>395</v>
       </c>
       <c r="J254" t="str">
         <f t="shared" si="0"/>
@@ -7530,7 +8392,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C255">
         <v>17</v>
@@ -7540,6 +8402,9 @@
       </c>
       <c r="E255">
         <v>40</v>
+      </c>
+      <c r="F255" t="s">
+        <v>395</v>
       </c>
       <c r="J255" t="str">
         <f t="shared" si="0"/>
@@ -7551,7 +8416,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -7561,6 +8426,9 @@
       </c>
       <c r="E256">
         <v>65</v>
+      </c>
+      <c r="F256" t="s">
+        <v>395</v>
       </c>
       <c r="J256" t="str">
         <f t="shared" si="0"/>
@@ -7572,7 +8440,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C257">
         <v>5</v>
@@ -7582,6 +8450,9 @@
       </c>
       <c r="E257">
         <v>120</v>
+      </c>
+      <c r="F257" t="s">
+        <v>395</v>
       </c>
       <c r="J257" t="str">
         <f t="shared" si="0"/>
@@ -7593,7 +8464,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C258">
         <v>13</v>
@@ -7604,8 +8475,11 @@
       <c r="E258">
         <v>80</v>
       </c>
+      <c r="F258" t="s">
+        <v>395</v>
+      </c>
       <c r="J258" t="str">
-        <f t="shared" ref="J258:J359" si="1">"Skill.create(name: """&amp;B258&amp;""", power: "&amp;E258&amp;", category: "&amp;C258&amp;", group: "&amp;D258&amp;")"</f>
+        <f t="shared" ref="J258:J372" si="1">"Skill.create(name: """&amp;B258&amp;""", power: "&amp;E258&amp;", category: "&amp;C258&amp;", group: "&amp;D258&amp;")"</f>
         <v>Skill.create(name: "パワージェム", power: 80, category: 13, group: 2)</v>
       </c>
     </row>
@@ -7614,7 +8488,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C259">
         <v>2</v>
@@ -7624,6 +8498,9 @@
       </c>
       <c r="E259">
         <v>120</v>
+      </c>
+      <c r="F259" t="s">
+        <v>394</v>
       </c>
       <c r="J259" t="str">
         <f t="shared" si="1"/>
@@ -7635,7 +8512,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -7645,6 +8522,9 @@
       </c>
       <c r="E260">
         <v>40</v>
+      </c>
+      <c r="F260" t="s">
+        <v>395</v>
       </c>
       <c r="J260" t="str">
         <f t="shared" si="1"/>
@@ -7656,7 +8536,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C261">
         <v>2</v>
@@ -7666,6 +8546,9 @@
       </c>
       <c r="E261">
         <v>40</v>
+      </c>
+      <c r="F261" t="s">
+        <v>395</v>
       </c>
       <c r="J261" t="str">
         <f t="shared" si="1"/>
@@ -7677,7 +8560,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C262">
         <v>4</v>
@@ -7687,6 +8570,9 @@
       </c>
       <c r="E262">
         <v>80</v>
+      </c>
+      <c r="F262" t="s">
+        <v>395</v>
       </c>
       <c r="J262" t="str">
         <f t="shared" si="1"/>
@@ -7698,7 +8584,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C263">
         <v>16</v>
@@ -7708,6 +8594,9 @@
       </c>
       <c r="E263">
         <v>70</v>
+      </c>
+      <c r="F263" t="s">
+        <v>395</v>
       </c>
       <c r="J263" t="str">
         <f t="shared" si="1"/>
@@ -7719,7 +8608,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C264">
         <v>1</v>
@@ -7729,6 +8618,12 @@
       </c>
       <c r="E264">
         <v>30</v>
+      </c>
+      <c r="F264" t="s">
+        <v>394</v>
+      </c>
+      <c r="G264" t="s">
+        <v>398</v>
       </c>
       <c r="J264" t="str">
         <f t="shared" si="1"/>
@@ -7740,7 +8635,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C265">
         <v>11</v>
@@ -7750,6 +8645,9 @@
       </c>
       <c r="E265">
         <v>100</v>
+      </c>
+      <c r="F265" t="s">
+        <v>397</v>
       </c>
       <c r="J265" t="str">
         <f t="shared" si="1"/>
@@ -7761,7 +8659,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C266">
         <v>16</v>
@@ -7771,6 +8669,9 @@
       </c>
       <c r="E266">
         <v>0</v>
+      </c>
+      <c r="F266" t="s">
+        <v>394</v>
       </c>
       <c r="J266" t="str">
         <f t="shared" si="1"/>
@@ -7782,7 +8683,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C267">
         <v>6</v>
@@ -7792,6 +8693,9 @@
       </c>
       <c r="E267">
         <v>110</v>
+      </c>
+      <c r="F267" t="s">
+        <v>395</v>
       </c>
       <c r="J267" t="str">
         <f t="shared" si="1"/>
@@ -7803,7 +8707,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C268">
         <v>1</v>
@@ -7813,6 +8717,12 @@
       </c>
       <c r="E268">
         <v>65</v>
+      </c>
+      <c r="F268" t="s">
+        <v>394</v>
+      </c>
+      <c r="G268" t="s">
+        <v>396</v>
       </c>
       <c r="J268" t="str">
         <f t="shared" si="1"/>
@@ -7824,7 +8734,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C269">
         <v>7</v>
@@ -7834,6 +8744,9 @@
       </c>
       <c r="E269">
         <v>100</v>
+      </c>
+      <c r="F269" t="s">
+        <v>397</v>
       </c>
       <c r="J269" t="str">
         <f t="shared" si="1"/>
@@ -7845,7 +8758,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C270">
         <v>6</v>
@@ -7855,6 +8768,9 @@
       </c>
       <c r="E270">
         <v>70</v>
+      </c>
+      <c r="F270" t="s">
+        <v>395</v>
       </c>
       <c r="J270" t="str">
         <f t="shared" si="1"/>
@@ -7866,7 +8782,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C271">
         <v>6</v>
@@ -7876,6 +8792,9 @@
       </c>
       <c r="E271">
         <v>140</v>
+      </c>
+      <c r="F271" t="s">
+        <v>395</v>
       </c>
       <c r="J271" t="str">
         <f t="shared" si="1"/>
@@ -7887,7 +8806,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C272">
         <v>2</v>
@@ -7897,6 +8816,9 @@
       </c>
       <c r="E272">
         <v>120</v>
+      </c>
+      <c r="F272" t="s">
+        <v>395</v>
       </c>
       <c r="J272" t="str">
         <f t="shared" si="1"/>
@@ -7908,7 +8830,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C273">
         <v>2</v>
@@ -7918,6 +8840,9 @@
       </c>
       <c r="E273">
         <v>80</v>
+      </c>
+      <c r="F273" t="s">
+        <v>395</v>
       </c>
       <c r="J273" t="str">
         <f t="shared" si="1"/>
@@ -7929,7 +8854,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C274">
         <v>2</v>
@@ -7939,6 +8864,9 @@
       </c>
       <c r="E274">
         <v>150</v>
+      </c>
+      <c r="F274" t="s">
+        <v>395</v>
       </c>
       <c r="J274" t="str">
         <f t="shared" si="1"/>
@@ -7950,7 +8878,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C275">
         <v>2</v>
@@ -7960,6 +8888,9 @@
       </c>
       <c r="E275">
         <v>180</v>
+      </c>
+      <c r="F275" t="s">
+        <v>395</v>
       </c>
       <c r="J275" t="str">
         <f t="shared" si="1"/>
@@ -7971,7 +8902,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C276">
         <v>2</v>
@@ -7981,6 +8912,9 @@
       </c>
       <c r="E276">
         <v>150</v>
+      </c>
+      <c r="F276" t="s">
+        <v>395</v>
       </c>
       <c r="J276" t="str">
         <f t="shared" si="1"/>
@@ -7992,7 +8926,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -8002,6 +8936,9 @@
       </c>
       <c r="E277">
         <v>75</v>
+      </c>
+      <c r="F277" t="s">
+        <v>395</v>
       </c>
       <c r="J277" t="str">
         <f t="shared" si="1"/>
@@ -8013,7 +8950,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C278">
         <v>2</v>
@@ -8023,6 +8960,9 @@
       </c>
       <c r="E278">
         <v>85</v>
+      </c>
+      <c r="F278" t="s">
+        <v>395</v>
       </c>
       <c r="J278" t="str">
         <f t="shared" si="1"/>
@@ -8034,7 +8974,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C279">
         <v>10</v>
@@ -8044,6 +8984,9 @@
       </c>
       <c r="E279">
         <v>120</v>
+      </c>
+      <c r="F279" t="s">
+        <v>395</v>
       </c>
       <c r="J279" t="str">
         <f t="shared" si="1"/>
@@ -8055,7 +8998,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C280">
         <v>16</v>
@@ -8065,6 +9008,9 @@
       </c>
       <c r="E280">
         <v>60</v>
+      </c>
+      <c r="F280" t="s">
+        <v>395</v>
       </c>
       <c r="J280" t="str">
         <f t="shared" si="1"/>
@@ -8076,7 +9022,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C281">
         <v>4</v>
@@ -8086,6 +9032,9 @@
       </c>
       <c r="E281">
         <v>100</v>
+      </c>
+      <c r="F281" t="s">
+        <v>395</v>
       </c>
       <c r="J281" t="str">
         <f t="shared" si="1"/>
@@ -8097,7 +9046,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C282">
         <v>11</v>
@@ -8107,6 +9056,9 @@
       </c>
       <c r="E282">
         <v>160</v>
+      </c>
+      <c r="F282" t="s">
+        <v>395</v>
       </c>
       <c r="J282" t="str">
         <f t="shared" si="1"/>
@@ -8118,7 +9070,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -8128,6 +9080,9 @@
       </c>
       <c r="E283">
         <v>120</v>
+      </c>
+      <c r="F283" t="s">
+        <v>394</v>
       </c>
       <c r="J283" t="str">
         <f t="shared" si="1"/>
@@ -8139,7 +9094,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C284">
         <v>8</v>
@@ -8149,6 +9104,9 @@
       </c>
       <c r="E284">
         <v>95</v>
+      </c>
+      <c r="F284" t="s">
+        <v>395</v>
       </c>
       <c r="J284" t="str">
         <f t="shared" si="1"/>
@@ -8160,7 +9118,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C285">
         <v>8</v>
@@ -8170,6 +9128,9 @@
       </c>
       <c r="E285">
         <v>65</v>
+      </c>
+      <c r="F285" t="s">
+        <v>395</v>
       </c>
       <c r="J285" t="str">
         <f t="shared" si="1"/>
@@ -8181,7 +9142,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C286">
         <v>8</v>
@@ -8191,6 +9152,9 @@
       </c>
       <c r="E286">
         <v>90</v>
+      </c>
+      <c r="F286" t="s">
+        <v>395</v>
       </c>
       <c r="J286" t="str">
         <f t="shared" si="1"/>
@@ -8202,7 +9166,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C287">
         <v>17</v>
@@ -8212,6 +9176,12 @@
       </c>
       <c r="E287">
         <v>120</v>
+      </c>
+      <c r="F287" t="s">
+        <v>394</v>
+      </c>
+      <c r="G287" t="s">
+        <v>396</v>
       </c>
       <c r="J287" t="str">
         <f t="shared" si="1"/>
@@ -8223,7 +9193,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C288">
         <v>8</v>
@@ -8233,6 +9203,12 @@
       </c>
       <c r="E288">
         <v>65</v>
+      </c>
+      <c r="F288" t="s">
+        <v>394</v>
+      </c>
+      <c r="G288" t="s">
+        <v>396</v>
       </c>
       <c r="J288" t="str">
         <f t="shared" si="1"/>
@@ -8244,7 +9220,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C289">
         <v>4</v>
@@ -8254,6 +9230,9 @@
       </c>
       <c r="E289">
         <v>80</v>
+      </c>
+      <c r="F289" t="s">
+        <v>395</v>
       </c>
       <c r="J289" t="str">
         <f t="shared" si="1"/>
@@ -8265,7 +9244,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C290">
         <v>1</v>
@@ -8275,6 +9254,9 @@
       </c>
       <c r="E290">
         <v>60</v>
+      </c>
+      <c r="F290" t="s">
+        <v>395</v>
       </c>
       <c r="J290" t="str">
         <f t="shared" si="1"/>
@@ -8286,7 +9268,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C291">
         <v>4</v>
@@ -8296,6 +9278,9 @@
       </c>
       <c r="E291">
         <v>20</v>
+      </c>
+      <c r="F291" t="s">
+        <v>395</v>
       </c>
       <c r="J291" t="str">
         <f t="shared" si="1"/>
@@ -8307,7 +9292,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C292">
         <v>2</v>
@@ -8317,6 +9302,9 @@
       </c>
       <c r="E292">
         <v>35</v>
+      </c>
+      <c r="F292" t="s">
+        <v>395</v>
       </c>
       <c r="J292" t="str">
         <f t="shared" si="1"/>
@@ -8328,7 +9316,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -8338,6 +9326,9 @@
       </c>
       <c r="E293">
         <v>65</v>
+      </c>
+      <c r="F293" t="s">
+        <v>395</v>
       </c>
       <c r="J293" t="str">
         <f t="shared" si="1"/>
@@ -8349,7 +9340,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C294">
         <v>2</v>
@@ -8359,6 +9350,9 @@
       </c>
       <c r="E294">
         <v>80</v>
+      </c>
+      <c r="F294" t="s">
+        <v>394</v>
       </c>
       <c r="J294" t="str">
         <f t="shared" si="1"/>
@@ -8370,7 +9364,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C295">
         <v>2</v>
@@ -8380,6 +9374,9 @@
       </c>
       <c r="E295">
         <v>75</v>
+      </c>
+      <c r="F295" t="s">
+        <v>395</v>
       </c>
       <c r="J295" t="str">
         <f t="shared" si="1"/>
@@ -8391,7 +9388,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C296">
         <v>2</v>
@@ -8401,6 +9398,9 @@
       </c>
       <c r="E296">
         <v>80</v>
+      </c>
+      <c r="F296" t="s">
+        <v>395</v>
       </c>
       <c r="J296" t="str">
         <f t="shared" si="1"/>
@@ -8412,7 +9412,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C297">
         <v>9</v>
@@ -8422,6 +9422,12 @@
       </c>
       <c r="E297">
         <v>25</v>
+      </c>
+      <c r="F297" t="s">
+        <v>394</v>
+      </c>
+      <c r="G297" t="s">
+        <v>396</v>
       </c>
       <c r="J297" t="str">
         <f t="shared" si="1"/>
@@ -8433,7 +9439,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C298">
         <v>10</v>
@@ -8443,6 +9449,9 @@
       </c>
       <c r="E298">
         <v>110</v>
+      </c>
+      <c r="F298" t="s">
+        <v>395</v>
       </c>
       <c r="J298" t="str">
         <f t="shared" si="1"/>
@@ -8454,7 +9463,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C299">
         <v>7</v>
@@ -8464,6 +9473,9 @@
       </c>
       <c r="E299">
         <v>80</v>
+      </c>
+      <c r="F299" t="s">
+        <v>394</v>
       </c>
       <c r="J299" t="str">
         <f t="shared" si="1"/>
@@ -8475,7 +9487,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C300">
         <v>4</v>
@@ -8485,6 +9497,9 @@
       </c>
       <c r="E300">
         <v>120</v>
+      </c>
+      <c r="F300" t="s">
+        <v>395</v>
       </c>
       <c r="J300" t="str">
         <f t="shared" si="1"/>
@@ -8496,7 +9511,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C301">
         <v>4</v>
@@ -8506,6 +9521,9 @@
       </c>
       <c r="E301">
         <v>70</v>
+      </c>
+      <c r="F301" t="s">
+        <v>395</v>
       </c>
       <c r="J301" t="str">
         <f t="shared" si="1"/>
@@ -8517,7 +9535,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C302">
         <v>8</v>
@@ -8527,6 +9545,9 @@
       </c>
       <c r="E302">
         <v>50</v>
+      </c>
+      <c r="F302" t="s">
+        <v>395</v>
       </c>
       <c r="J302" t="str">
         <f t="shared" si="1"/>
@@ -8538,7 +9559,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C303">
         <v>1</v>
@@ -8548,6 +9569,9 @@
       </c>
       <c r="E303">
         <v>15</v>
+      </c>
+      <c r="F303" t="s">
+        <v>395</v>
       </c>
       <c r="J303" t="str">
         <f t="shared" si="1"/>
@@ -8559,7 +9583,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C304">
         <v>18</v>
@@ -8569,6 +9593,9 @@
       </c>
       <c r="E304">
         <v>80</v>
+      </c>
+      <c r="F304" t="s">
+        <v>395</v>
       </c>
       <c r="J304" t="str">
         <f t="shared" si="1"/>
@@ -8580,7 +9607,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C305">
         <v>2</v>
@@ -8590,6 +9617,9 @@
       </c>
       <c r="E305">
         <v>75</v>
+      </c>
+      <c r="F305" t="s">
+        <v>395</v>
       </c>
       <c r="J305" t="str">
         <f t="shared" si="1"/>
@@ -8601,7 +9631,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C306">
         <v>5</v>
@@ -8611,6 +9641,9 @@
       </c>
       <c r="E306">
         <v>60</v>
+      </c>
+      <c r="F306" t="s">
+        <v>395</v>
       </c>
       <c r="J306" t="str">
         <f t="shared" si="1"/>
@@ -8622,7 +9655,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C307">
         <v>9</v>
@@ -8632,6 +9665,9 @@
       </c>
       <c r="E307">
         <v>55</v>
+      </c>
+      <c r="F307" t="s">
+        <v>395</v>
       </c>
       <c r="J307" t="str">
         <f t="shared" si="1"/>
@@ -8643,7 +9679,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C308">
         <v>7</v>
@@ -8653,6 +9689,9 @@
       </c>
       <c r="E308">
         <v>40</v>
+      </c>
+      <c r="F308" t="s">
+        <v>395</v>
       </c>
       <c r="J308" t="str">
         <f t="shared" si="1"/>
@@ -8664,7 +9703,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C309">
         <v>12</v>
@@ -8674,6 +9713,9 @@
       </c>
       <c r="E309">
         <v>20</v>
+      </c>
+      <c r="F309" t="s">
+        <v>395</v>
       </c>
       <c r="J309" t="str">
         <f t="shared" si="1"/>
@@ -8685,7 +9727,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C310">
         <v>1</v>
@@ -8695,6 +9737,9 @@
       </c>
       <c r="E310">
         <v>120</v>
+      </c>
+      <c r="F310" t="s">
+        <v>395</v>
       </c>
       <c r="J310" t="str">
         <f t="shared" si="1"/>
@@ -8706,7 +9751,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C311">
         <v>12</v>
@@ -8716,6 +9761,12 @@
       </c>
       <c r="E311">
         <v>25</v>
+      </c>
+      <c r="F311" t="s">
+        <v>394</v>
+      </c>
+      <c r="G311" t="s">
+        <v>396</v>
       </c>
       <c r="J311" t="str">
         <f t="shared" si="1"/>
@@ -8727,7 +9778,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C312">
         <v>3</v>
@@ -8737,6 +9788,12 @@
       </c>
       <c r="E312">
         <v>15</v>
+      </c>
+      <c r="F312" t="s">
+        <v>394</v>
+      </c>
+      <c r="G312" t="s">
+        <v>396</v>
       </c>
       <c r="J312" t="str">
         <f t="shared" si="1"/>
@@ -8748,7 +9805,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C313">
         <v>3</v>
@@ -8758,6 +9815,9 @@
       </c>
       <c r="E313">
         <v>40</v>
+      </c>
+      <c r="F313" t="s">
+        <v>395</v>
       </c>
       <c r="J313" t="str">
         <f t="shared" si="1"/>
@@ -8769,7 +9829,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C314">
         <v>3</v>
@@ -8779,6 +9839,9 @@
       </c>
       <c r="E314">
         <v>80</v>
+      </c>
+      <c r="F314" t="s">
+        <v>394</v>
       </c>
       <c r="J314" t="str">
         <f t="shared" si="1"/>
@@ -8790,7 +9853,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C315">
         <v>3</v>
@@ -8800,6 +9863,9 @@
       </c>
       <c r="E315">
         <v>60</v>
+      </c>
+      <c r="F315" t="s">
+        <v>395</v>
       </c>
       <c r="J315" t="str">
         <f t="shared" si="1"/>
@@ -8811,7 +9877,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C316">
         <v>1</v>
@@ -8821,6 +9887,12 @@
       </c>
       <c r="E316">
         <v>15</v>
+      </c>
+      <c r="F316" t="s">
+        <v>394</v>
+      </c>
+      <c r="G316" t="s">
+        <v>398</v>
       </c>
       <c r="J316" t="str">
         <f t="shared" si="1"/>
@@ -8832,7 +9904,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C317">
         <v>1</v>
@@ -8842,6 +9914,12 @@
       </c>
       <c r="E317">
         <v>18</v>
+      </c>
+      <c r="F317" t="s">
+        <v>394</v>
+      </c>
+      <c r="G317" t="s">
+        <v>396</v>
       </c>
       <c r="J317" t="str">
         <f t="shared" si="1"/>
@@ -8853,7 +9931,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C318">
         <v>1</v>
@@ -8863,6 +9941,9 @@
       </c>
       <c r="E318">
         <v>40</v>
+      </c>
+      <c r="F318" t="s">
+        <v>397</v>
       </c>
       <c r="J318" t="str">
         <f t="shared" si="1"/>
@@ -8874,7 +9955,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C319">
         <v>11</v>
@@ -8884,6 +9965,9 @@
       </c>
       <c r="E319">
         <v>120</v>
+      </c>
+      <c r="F319" t="s">
+        <v>395</v>
       </c>
       <c r="J319" t="str">
         <f t="shared" si="1"/>
@@ -8895,7 +9979,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C320">
         <v>18</v>
@@ -8905,6 +9989,9 @@
       </c>
       <c r="E320">
         <v>95</v>
+      </c>
+      <c r="F320" t="s">
+        <v>395</v>
       </c>
       <c r="J320" t="str">
         <f t="shared" si="1"/>
@@ -8916,7 +10003,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C321">
         <v>15</v>
@@ -8926,6 +10013,9 @@
       </c>
       <c r="E321">
         <v>160</v>
+      </c>
+      <c r="F321" t="s">
+        <v>395</v>
       </c>
       <c r="J321" t="str">
         <f t="shared" si="1"/>
@@ -8937,7 +10027,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C322">
         <v>12</v>
@@ -8947,6 +10037,9 @@
       </c>
       <c r="E322">
         <v>60</v>
+      </c>
+      <c r="F322" t="s">
+        <v>395</v>
       </c>
       <c r="J322" t="str">
         <f t="shared" si="1"/>
@@ -8958,7 +10051,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C323">
         <v>12</v>
@@ -8968,6 +10061,9 @@
       </c>
       <c r="E323">
         <v>90</v>
+      </c>
+      <c r="F323" t="s">
+        <v>395</v>
       </c>
       <c r="J323" t="str">
         <f t="shared" si="1"/>
@@ -8979,7 +10075,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C324">
         <v>12</v>
@@ -8989,6 +10085,9 @@
       </c>
       <c r="E324">
         <v>50</v>
+      </c>
+      <c r="F324" t="s">
+        <v>395</v>
       </c>
       <c r="J324" t="str">
         <f t="shared" si="1"/>
@@ -9000,7 +10099,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C325">
         <v>1</v>
@@ -9010,6 +10109,9 @@
       </c>
       <c r="E325">
         <v>120</v>
+      </c>
+      <c r="F325" t="s">
+        <v>395</v>
       </c>
       <c r="J325" t="str">
         <f t="shared" si="1"/>
@@ -9021,7 +10123,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C326">
         <v>1</v>
@@ -9031,6 +10133,9 @@
       </c>
       <c r="E326">
         <v>80</v>
+      </c>
+      <c r="F326" t="s">
+        <v>395</v>
       </c>
       <c r="J326" t="str">
         <f t="shared" si="1"/>
@@ -9042,7 +10147,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C327">
         <v>5</v>
@@ -9052,6 +10157,9 @@
       </c>
       <c r="E327">
         <v>40</v>
+      </c>
+      <c r="F327" t="s">
+        <v>395</v>
       </c>
       <c r="J327" t="str">
         <f t="shared" si="1"/>
@@ -9063,7 +10171,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C328">
         <v>12</v>
@@ -9073,6 +10181,9 @@
       </c>
       <c r="E328">
         <v>120</v>
+      </c>
+      <c r="F328" t="s">
+        <v>395</v>
       </c>
       <c r="J328" t="str">
         <f t="shared" si="1"/>
@@ -9084,7 +10195,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C329">
         <v>17</v>
@@ -9094,6 +10205,9 @@
       </c>
       <c r="E329">
         <v>50</v>
+      </c>
+      <c r="F329" t="s">
+        <v>395</v>
       </c>
       <c r="J329" t="str">
         <f t="shared" si="1"/>
@@ -9105,7 +10219,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C330">
         <v>17</v>
@@ -9115,6 +10229,9 @@
       </c>
       <c r="E330">
         <v>100</v>
+      </c>
+      <c r="F330" t="s">
+        <v>397</v>
       </c>
       <c r="J330" t="str">
         <f t="shared" si="1"/>
@@ -9126,7 +10243,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C331">
         <v>2</v>
@@ -9136,6 +10253,9 @@
       </c>
       <c r="E331">
         <v>130</v>
+      </c>
+      <c r="F331" t="s">
+        <v>395</v>
       </c>
       <c r="J331" t="str">
         <f t="shared" si="1"/>
@@ -9147,7 +10267,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C332">
         <v>13</v>
@@ -9157,6 +10277,9 @@
       </c>
       <c r="E332">
         <v>150</v>
+      </c>
+      <c r="F332" t="s">
+        <v>395</v>
       </c>
       <c r="J332" t="str">
         <f t="shared" si="1"/>
@@ -9168,7 +10291,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C333">
         <v>2</v>
@@ -9178,6 +10301,9 @@
       </c>
       <c r="E333">
         <v>60</v>
+      </c>
+      <c r="F333" t="s">
+        <v>395</v>
       </c>
       <c r="J333" t="str">
         <f t="shared" si="1"/>
@@ -9189,7 +10315,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C334">
         <v>7</v>
@@ -9199,6 +10325,9 @@
       </c>
       <c r="E334">
         <v>60</v>
+      </c>
+      <c r="F334" t="s">
+        <v>397</v>
       </c>
       <c r="J334" t="str">
         <f t="shared" si="1"/>
@@ -9210,7 +10339,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C335">
         <v>6</v>
@@ -9220,6 +10349,12 @@
       </c>
       <c r="E335">
         <v>60</v>
+      </c>
+      <c r="F335" t="s">
+        <v>394</v>
+      </c>
+      <c r="G335" t="s">
+        <v>396</v>
       </c>
       <c r="J335" t="str">
         <f t="shared" si="1"/>
@@ -9231,7 +10366,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C336">
         <v>11</v>
@@ -9241,6 +10376,9 @@
       </c>
       <c r="E336">
         <v>100</v>
+      </c>
+      <c r="F336" t="s">
+        <v>395</v>
       </c>
       <c r="J336" t="str">
         <f t="shared" si="1"/>
@@ -9252,7 +10390,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C337">
         <v>8</v>
@@ -9262,6 +10400,9 @@
       </c>
       <c r="E337">
         <v>40</v>
+      </c>
+      <c r="F337" t="s">
+        <v>395</v>
       </c>
       <c r="J337" t="str">
         <f t="shared" si="1"/>
@@ -9273,7 +10414,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C338">
         <v>18</v>
@@ -9283,6 +10424,9 @@
       </c>
       <c r="E338">
         <v>40</v>
+      </c>
+      <c r="F338" t="s">
+        <v>395</v>
       </c>
       <c r="J338" t="str">
         <f t="shared" si="1"/>
@@ -9294,7 +10438,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C339">
         <v>4</v>
@@ -9304,6 +10448,9 @@
       </c>
       <c r="E339">
         <v>130</v>
+      </c>
+      <c r="F339" t="s">
+        <v>395</v>
       </c>
       <c r="J339" t="str">
         <f t="shared" si="1"/>
@@ -9315,7 +10462,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C340">
         <v>17</v>
@@ -9325,6 +10472,9 @@
       </c>
       <c r="E340">
         <v>80</v>
+      </c>
+      <c r="F340" t="s">
+        <v>395</v>
       </c>
       <c r="J340" t="str">
         <f t="shared" si="1"/>
@@ -9336,7 +10486,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C341">
         <v>5</v>
@@ -9346,6 +10496,9 @@
       </c>
       <c r="E341">
         <v>130</v>
+      </c>
+      <c r="F341" t="s">
+        <v>395</v>
       </c>
       <c r="J341" t="str">
         <f t="shared" si="1"/>
@@ -9357,7 +10510,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C342">
         <v>5</v>
@@ -9368,10 +10521,13 @@
       <c r="E342">
         <v>90</v>
       </c>
-      <c r="G342" s="1">
-        <v>1</v>
-      </c>
-      <c r="H342" s="1" t="s">
+      <c r="F342" t="s">
+        <v>395</v>
+      </c>
+      <c r="H342" s="1">
+        <v>1</v>
+      </c>
+      <c r="I342" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J342" t="str">
@@ -9384,7 +10540,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C343">
         <v>7</v>
@@ -9395,10 +10551,16 @@
       <c r="E343">
         <v>60</v>
       </c>
-      <c r="G343" s="1">
-        <v>2</v>
-      </c>
-      <c r="H343" s="1" t="s">
+      <c r="F343" t="s">
+        <v>394</v>
+      </c>
+      <c r="G343" t="s">
+        <v>396</v>
+      </c>
+      <c r="H343" s="1">
+        <v>2</v>
+      </c>
+      <c r="I343" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J343" t="str">
@@ -9411,7 +10573,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C344">
         <v>15</v>
@@ -9422,10 +10584,13 @@
       <c r="E344">
         <v>130</v>
       </c>
-      <c r="G344" s="1">
+      <c r="F344" t="s">
+        <v>395</v>
+      </c>
+      <c r="H344" s="1">
         <v>3</v>
       </c>
-      <c r="H344" s="1" t="s">
+      <c r="I344" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J344" t="str">
@@ -9438,7 +10603,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C345">
         <v>15</v>
@@ -9449,10 +10614,13 @@
       <c r="E345">
         <v>60</v>
       </c>
-      <c r="G345" s="1">
+      <c r="F345" t="s">
+        <v>395</v>
+      </c>
+      <c r="H345" s="1">
         <v>4</v>
       </c>
-      <c r="H345" s="1" t="s">
+      <c r="I345" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J345" t="str">
@@ -9465,7 +10633,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C346">
         <v>5</v>
@@ -9476,10 +10644,13 @@
       <c r="E346">
         <v>85</v>
       </c>
-      <c r="G346" s="1">
+      <c r="F346" t="s">
+        <v>395</v>
+      </c>
+      <c r="H346" s="1">
         <v>5</v>
       </c>
-      <c r="H346" s="1" t="s">
+      <c r="I346" s="1" t="s">
         <v>9</v>
       </c>
       <c r="J346" t="str">
@@ -9492,7 +10663,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C347">
         <v>5</v>
@@ -9503,10 +10674,13 @@
       <c r="E347">
         <v>80</v>
       </c>
-      <c r="G347" s="1">
+      <c r="F347" t="s">
+        <v>395</v>
+      </c>
+      <c r="H347" s="1">
         <v>6</v>
       </c>
-      <c r="H347" s="1" t="s">
+      <c r="I347" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J347" t="str">
@@ -9519,7 +10693,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C348">
         <v>1</v>
@@ -9530,10 +10704,16 @@
       <c r="E348">
         <v>60</v>
       </c>
-      <c r="G348" s="1">
+      <c r="F348" t="s">
+        <v>394</v>
+      </c>
+      <c r="G348" t="s">
+        <v>396</v>
+      </c>
+      <c r="H348" s="1">
         <v>7</v>
       </c>
-      <c r="H348" s="1" t="s">
+      <c r="I348" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J348" t="str">
@@ -9546,7 +10726,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C349">
         <v>6</v>
@@ -9557,10 +10737,13 @@
       <c r="E349">
         <v>75</v>
       </c>
-      <c r="G349" s="1">
+      <c r="F349" t="s">
+        <v>395</v>
+      </c>
+      <c r="H349" s="1">
         <v>8</v>
       </c>
-      <c r="H349" s="1" t="s">
+      <c r="I349" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J349" t="str">
@@ -9573,7 +10756,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C350">
         <v>6</v>
@@ -9584,10 +10767,13 @@
       <c r="E350">
         <v>90</v>
       </c>
-      <c r="G350" s="1">
+      <c r="F350" t="s">
+        <v>395</v>
+      </c>
+      <c r="H350" s="1">
         <v>9</v>
       </c>
-      <c r="H350" s="1" t="s">
+      <c r="I350" s="1" t="s">
         <v>13</v>
       </c>
       <c r="J350" t="str">
@@ -9600,7 +10786,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C351">
         <v>2</v>
@@ -9611,10 +10797,13 @@
       <c r="E351">
         <v>100</v>
       </c>
-      <c r="G351" s="1">
+      <c r="F351" t="s">
+        <v>395</v>
+      </c>
+      <c r="H351" s="1">
         <v>10</v>
       </c>
-      <c r="H351" s="1" t="s">
+      <c r="I351" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J351" t="str">
@@ -9627,7 +10816,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C352">
         <v>12</v>
@@ -9638,10 +10827,16 @@
       <c r="E352">
         <v>40</v>
       </c>
-      <c r="G352" s="1">
+      <c r="F352" t="s">
+        <v>394</v>
+      </c>
+      <c r="G352" t="s">
+        <v>396</v>
+      </c>
+      <c r="H352" s="1">
         <v>11</v>
       </c>
-      <c r="H352" s="1" t="s">
+      <c r="I352" s="1" t="s">
         <v>15</v>
       </c>
       <c r="J352" t="str">
@@ -9654,7 +10849,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C353">
         <v>7</v>
@@ -9665,10 +10860,13 @@
       <c r="E353">
         <v>65</v>
       </c>
-      <c r="G353" s="1">
+      <c r="F353" t="s">
+        <v>395</v>
+      </c>
+      <c r="H353" s="1">
         <v>12</v>
       </c>
-      <c r="H353" s="1" t="s">
+      <c r="I353" s="1" t="s">
         <v>16</v>
       </c>
       <c r="J353" t="str">
@@ -9681,7 +10879,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C354">
         <v>1</v>
@@ -9692,10 +10890,13 @@
       <c r="E354">
         <v>130</v>
       </c>
-      <c r="G354" s="1">
+      <c r="F354" t="s">
+        <v>395</v>
+      </c>
+      <c r="H354" s="1">
         <v>13</v>
       </c>
-      <c r="H354" s="1" t="s">
+      <c r="I354" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J354" t="str">
@@ -9708,7 +10909,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C355">
         <v>13</v>
@@ -9719,10 +10920,16 @@
       <c r="E355">
         <v>25</v>
       </c>
-      <c r="G355" s="1">
+      <c r="F355" t="s">
+        <v>394</v>
+      </c>
+      <c r="G355" t="s">
+        <v>396</v>
+      </c>
+      <c r="H355" s="1">
         <v>14</v>
       </c>
-      <c r="H355" s="1" t="s">
+      <c r="I355" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J355" t="str">
@@ -9735,7 +10942,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C356">
         <v>15</v>
@@ -9746,10 +10953,13 @@
       <c r="E356">
         <v>60</v>
       </c>
-      <c r="G356" s="1">
+      <c r="F356" t="s">
+        <v>395</v>
+      </c>
+      <c r="H356" s="1">
         <v>15</v>
       </c>
-      <c r="H356" s="1" t="s">
+      <c r="I356" s="1" t="s">
         <v>19</v>
       </c>
       <c r="J356" t="str">
@@ -9762,7 +10972,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C357">
         <v>4</v>
@@ -9773,10 +10983,13 @@
       <c r="E357">
         <v>90</v>
       </c>
-      <c r="G357" s="1">
+      <c r="F357" t="s">
+        <v>395</v>
+      </c>
+      <c r="H357" s="1">
         <v>16</v>
       </c>
-      <c r="H357" s="1" t="s">
+      <c r="I357" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J357" t="str">
@@ -9789,7 +11002,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C358">
         <v>1</v>
@@ -9800,10 +11013,13 @@
       <c r="E358">
         <v>50</v>
       </c>
-      <c r="G358" s="1">
+      <c r="F358" t="s">
+        <v>397</v>
+      </c>
+      <c r="H358" s="1">
         <v>17</v>
       </c>
-      <c r="H358" s="1" t="s">
+      <c r="I358" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J358" t="str">
@@ -9816,7 +11032,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C359">
         <v>18</v>
@@ -9827,15 +11043,330 @@
       <c r="E359">
         <v>90</v>
       </c>
-      <c r="G359" s="1">
+      <c r="F359" t="s">
+        <v>395</v>
+      </c>
+      <c r="H359" s="1">
         <v>18</v>
       </c>
-      <c r="H359" s="1" t="s">
+      <c r="I359" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J359" t="str">
         <f t="shared" si="1"/>
         <v>Skill.create(name: "ワンダースチーム", power: 90, category: 18, group: 2)</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="B360" t="s">
+        <v>379</v>
+      </c>
+      <c r="C360">
+        <v>4</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>150</v>
+      </c>
+      <c r="F360" t="s">
+        <v>394</v>
+      </c>
+      <c r="J360" t="str">
+        <f>"Skill.create(name: """&amp;B360&amp;""", power: "&amp;E360&amp;", category: "&amp;C360&amp;", group: "&amp;D360&amp;")"</f>
+        <v>Skill.create(name: "エレキボール", power: 150, category: 4, group: 2)</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="B361" t="s">
+        <v>380</v>
+      </c>
+      <c r="C361">
+        <v>7</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361" t="s">
+        <v>395</v>
+      </c>
+      <c r="J361" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "カウンター", power: 0, category: 7, group: 1)</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="B362" t="s">
+        <v>381</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362">
+        <v>1</v>
+      </c>
+      <c r="E362">
+        <v>0</v>
+      </c>
+      <c r="F362" t="s">
+        <v>395</v>
+      </c>
+      <c r="J362" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "ちきゅうなげ", power: 0, category: 7, group: 1)</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="B363" t="s">
+        <v>382</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>1</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363" t="s">
+        <v>395</v>
+      </c>
+      <c r="J363" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "いかりのまえば", power: 0, category: 1, group: 1)</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="B364" t="s">
+        <v>383</v>
+      </c>
+      <c r="C364">
+        <v>14</v>
+      </c>
+      <c r="D364">
+        <v>2</v>
+      </c>
+      <c r="E364">
+        <v>0</v>
+      </c>
+      <c r="F364" t="s">
+        <v>395</v>
+      </c>
+      <c r="J364" t="str">
+        <f>"Skill.create(name: """&amp;B364&amp;""", power: "&amp;E364&amp;", category: "&amp;C364&amp;", group: "&amp;D364&amp;")"</f>
+        <v>Skill.create(name: "ナイトヘッド", power: 0, category: 14, group: 2)</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="B365" t="s">
+        <v>384</v>
+      </c>
+      <c r="C365">
+        <v>11</v>
+      </c>
+      <c r="D365">
+        <v>2</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365" t="s">
+        <v>395</v>
+      </c>
+      <c r="J365" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "ミラーコート", power: 0, category: 11, group: 2)</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="B366" t="s">
+        <v>385</v>
+      </c>
+      <c r="C366">
+        <v>17</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366" t="s">
+        <v>395</v>
+      </c>
+      <c r="J366" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "メタルバースト", power: 0, category: 17, group: 1)</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="B367" t="s">
+        <v>386</v>
+      </c>
+      <c r="C367">
+        <v>7</v>
+      </c>
+      <c r="D367">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367" t="s">
+        <v>395</v>
+      </c>
+      <c r="J367" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "いのちがけ", power: 0, category: 7, group: 2)</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="B368" t="s">
+        <v>387</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368">
+        <v>0</v>
+      </c>
+      <c r="F368" t="s">
+        <v>395</v>
+      </c>
+      <c r="J368" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "ハサミギロチン", power: 0, category: 1, group: 1)</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="B369" t="s">
+        <v>388</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369">
+        <v>0</v>
+      </c>
+      <c r="F369" t="s">
+        <v>395</v>
+      </c>
+      <c r="J369" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "つのドリル", power: 0, category: 1, group: 1)</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="B370" t="s">
+        <v>389</v>
+      </c>
+      <c r="C370">
+        <v>9</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370">
+        <v>0</v>
+      </c>
+      <c r="F370" t="s">
+        <v>395</v>
+      </c>
+      <c r="J370" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "じわれ", power: 0, category: 9, group: 1)</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371" t="s">
+        <v>390</v>
+      </c>
+      <c r="C371">
+        <v>6</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371">
+        <v>0</v>
+      </c>
+      <c r="F371" t="s">
+        <v>395</v>
+      </c>
+      <c r="J371" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "ぜったいれいど", power: 0, category: 6, group: 2)</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372" t="s">
+        <v>391</v>
+      </c>
+      <c r="C372">
+        <v>1</v>
+      </c>
+      <c r="D372">
+        <v>1</v>
+      </c>
+      <c r="E372">
+        <v>0</v>
+      </c>
+      <c r="F372" t="s">
+        <v>395</v>
+      </c>
+      <c r="J372" t="str">
+        <f t="shared" si="1"/>
+        <v>Skill.create(name: "がむしゃら", power: 0, category: 1, group: 1)</v>
       </c>
     </row>
   </sheetData>
